--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869721628392597</v>
+        <v>0.9869721628392588</v>
       </c>
       <c r="D2">
         <v>1.007880652110476</v>
       </c>
       <c r="E2">
-        <v>0.9961157458768912</v>
+        <v>0.9961157458768907</v>
       </c>
       <c r="F2">
-        <v>0.9964271228032729</v>
+        <v>0.9964271228032725</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,10 +439,10 @@
         <v>1.040324552010826</v>
       </c>
       <c r="J2">
-        <v>1.009549641303457</v>
+        <v>1.009549641303456</v>
       </c>
       <c r="K2">
-        <v>1.019231277963806</v>
+        <v>1.019231277963805</v>
       </c>
       <c r="L2">
         <v>1.007629461094591</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935430338693252</v>
+        <v>0.9935430338693231</v>
       </c>
       <c r="D3">
-        <v>1.012697477609322</v>
+        <v>1.012697477609319</v>
       </c>
       <c r="E3">
-        <v>1.001722538177281</v>
+        <v>1.001722538177279</v>
       </c>
       <c r="F3">
-        <v>1.003931797495552</v>
+        <v>1.00393179749555</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042516586296279</v>
+        <v>1.042516586296278</v>
       </c>
       <c r="J3">
-        <v>1.01421128351232</v>
+        <v>1.014211283512318</v>
       </c>
       <c r="K3">
-        <v>1.023170429335305</v>
+        <v>1.023170429335303</v>
       </c>
       <c r="L3">
-        <v>1.01233342615011</v>
+        <v>1.012333426150108</v>
       </c>
       <c r="M3">
-        <v>1.014514616221921</v>
+        <v>1.014514616221919</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997673933619613</v>
+        <v>0.9976739336196143</v>
       </c>
       <c r="D4">
-        <v>1.0157270129472</v>
+        <v>1.015727012947201</v>
       </c>
       <c r="E4">
-        <v>1.005252808430496</v>
+        <v>1.005252808430497</v>
       </c>
       <c r="F4">
-        <v>1.008649681767888</v>
+        <v>1.008649681767889</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043878806658276</v>
       </c>
       <c r="J4">
-        <v>1.017137328151867</v>
+        <v>1.017137328151868</v>
       </c>
       <c r="K4">
-        <v>1.025639261151238</v>
+        <v>1.025639261151239</v>
       </c>
       <c r="L4">
-        <v>1.015288247410518</v>
+        <v>1.015288247410519</v>
       </c>
       <c r="M4">
-        <v>1.018644821763184</v>
+        <v>1.018644821763185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9993831205955331</v>
+        <v>0.9993831205955341</v>
       </c>
       <c r="D5">
-        <v>1.016980725588201</v>
+        <v>1.016980725588202</v>
       </c>
       <c r="E5">
-        <v>1.006714727418962</v>
+        <v>1.006714727418963</v>
       </c>
       <c r="F5">
         <v>1.010601806620335</v>
@@ -553,13 +553,13 @@
         <v>1.044438573846441</v>
       </c>
       <c r="J5">
-        <v>1.018346846326688</v>
+        <v>1.018346846326689</v>
       </c>
       <c r="K5">
         <v>1.026658865639902</v>
       </c>
       <c r="L5">
-        <v>1.016510197185321</v>
+        <v>1.016510197185322</v>
       </c>
       <c r="M5">
         <v>1.020352504996225</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9996685327311536</v>
+        <v>0.9996685327311544</v>
       </c>
       <c r="D6">
-        <v>1.017190089639983</v>
+        <v>1.017190089639984</v>
       </c>
       <c r="E6">
         <v>1.006958920546644</v>
       </c>
       <c r="F6">
-        <v>1.010927792661979</v>
+        <v>1.01092779266198</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044531819005504</v>
+        <v>1.044531819005505</v>
       </c>
       <c r="J6">
-        <v>1.018548750997882</v>
+        <v>1.018548750997883</v>
       </c>
       <c r="K6">
         <v>1.026829013222727</v>
       </c>
       <c r="L6">
-        <v>1.016714208782781</v>
+        <v>1.016714208782782</v>
       </c>
       <c r="M6">
-        <v>1.020637595818776</v>
+        <v>1.020637595818777</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9976968777974213</v>
+        <v>0.9976968777974216</v>
       </c>
       <c r="D7">
         <v>1.015743842073097</v>
@@ -632,7 +632,7 @@
         <v>1.017153569386769</v>
       </c>
       <c r="K7">
-        <v>1.025652955925757</v>
+        <v>1.025652955925758</v>
       </c>
       <c r="L7">
         <v>1.015304653443929</v>
@@ -655,10 +655,10 @@
         <v>1.00952721155759</v>
       </c>
       <c r="E8">
-        <v>0.9980315587161204</v>
+        <v>0.9980315587161205</v>
       </c>
       <c r="F8">
-        <v>0.9989930956720275</v>
+        <v>0.9989930956720278</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9732792577457023</v>
+        <v>0.9732792577457017</v>
       </c>
       <c r="D9">
-        <v>0.9978554750016831</v>
+        <v>0.9978554750016824</v>
       </c>
       <c r="E9">
-        <v>0.9844655269965744</v>
+        <v>0.9844655269965735</v>
       </c>
       <c r="F9">
-        <v>0.98078352827756</v>
+        <v>0.9807835282775594</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035670685813319</v>
       </c>
       <c r="J9">
-        <v>0.9998122097944629</v>
+        <v>0.9998122097944618</v>
       </c>
       <c r="K9">
         <v>1.010983441714653</v>
       </c>
       <c r="L9">
-        <v>0.9978157707916385</v>
+        <v>0.9978157707916376</v>
       </c>
       <c r="M9">
-        <v>0.994196268437523</v>
+        <v>0.9941962684375224</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9618645730040806</v>
+        <v>0.9618645730040815</v>
       </c>
       <c r="D10">
-        <v>0.9895159779202154</v>
+        <v>0.9895159779202161</v>
       </c>
       <c r="E10">
-        <v>0.9747879532263293</v>
+        <v>0.9747879532263301</v>
       </c>
       <c r="F10">
-        <v>0.9677323824206217</v>
+        <v>0.9677323824206225</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.031717565573249</v>
       </c>
       <c r="J10">
-        <v>0.9916774219683462</v>
+        <v>0.991677421968347</v>
       </c>
       <c r="K10">
         <v>1.004077140306468</v>
       </c>
       <c r="L10">
-        <v>0.989627844766701</v>
+        <v>0.9896278447667017</v>
       </c>
       <c r="M10">
-        <v>0.9827097478192008</v>
+        <v>0.9827097478192017</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,22 +763,22 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9567047924497987</v>
+        <v>0.9567047924497986</v>
       </c>
       <c r="D11">
         <v>0.9857527685843614</v>
       </c>
       <c r="E11">
-        <v>0.9704235638939083</v>
+        <v>0.9704235638939084</v>
       </c>
       <c r="F11">
-        <v>0.9618283180637304</v>
+        <v>0.9618283180637303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02991233654104</v>
+        <v>1.029912336541039</v>
       </c>
       <c r="J11">
         <v>0.9879966094593825</v>
@@ -787,7 +787,7 @@
         <v>1.000948462999938</v>
       </c>
       <c r="L11">
-        <v>0.985925666792013</v>
+        <v>0.9859256667920131</v>
       </c>
       <c r="M11">
         <v>0.9775078777751164</v>
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9547526480983525</v>
+        <v>0.9547526480983533</v>
       </c>
       <c r="D12">
-        <v>0.9843301657645552</v>
+        <v>0.9843301657645555</v>
       </c>
       <c r="E12">
-        <v>0.9687739955012674</v>
+        <v>0.9687739955012681</v>
       </c>
       <c r="F12">
-        <v>0.9595937000650535</v>
+        <v>0.9595937000650542</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029226692702784</v>
       </c>
       <c r="J12">
-        <v>0.9866035616544525</v>
+        <v>0.9866035616544531</v>
       </c>
       <c r="K12">
-        <v>0.9997638611539423</v>
+        <v>0.9997638611539424</v>
       </c>
       <c r="L12">
-        <v>0.9845249267052045</v>
+        <v>0.9845249267052052</v>
       </c>
       <c r="M12">
-        <v>0.975538241522995</v>
+        <v>0.9755382415229954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9551730507895674</v>
+        <v>0.9551730507895686</v>
       </c>
       <c r="D13">
-        <v>0.9846364736156639</v>
+        <v>0.9846364736156653</v>
       </c>
       <c r="E13">
-        <v>0.9691291606679253</v>
+        <v>0.9691291606679261</v>
       </c>
       <c r="F13">
-        <v>0.9600749779797004</v>
+        <v>0.9600749779797016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029374467351493</v>
+        <v>1.029374467351494</v>
       </c>
       <c r="J13">
-        <v>0.9869035794101177</v>
+        <v>0.986903579410119</v>
       </c>
       <c r="K13">
-        <v>1.000019008904779</v>
+        <v>1.00001900890478</v>
       </c>
       <c r="L13">
-        <v>0.984826583509541</v>
+        <v>0.9848265835095419</v>
       </c>
       <c r="M13">
-        <v>0.9759624841044636</v>
+        <v>0.9759624841044647</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9565441716130183</v>
+        <v>0.95654417161302</v>
       </c>
       <c r="D14">
-        <v>0.9856356932198973</v>
+        <v>0.9856356932198986</v>
       </c>
       <c r="E14">
-        <v>0.9702878045815513</v>
+        <v>0.9702878045815522</v>
       </c>
       <c r="F14">
-        <v>0.9616444746610883</v>
+        <v>0.961644474661089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029855975628671</v>
+        <v>1.029855975628672</v>
       </c>
       <c r="J14">
-        <v>0.9878819992732141</v>
+        <v>0.9878819992732154</v>
       </c>
       <c r="K14">
-        <v>1.000851012487557</v>
+        <v>1.000851012487558</v>
       </c>
       <c r="L14">
-        <v>0.9858104158074429</v>
+        <v>0.985810415807444</v>
       </c>
       <c r="M14">
-        <v>0.9773458502880832</v>
+        <v>0.9773458502880841</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9573841563060302</v>
+        <v>0.957384156306032</v>
       </c>
       <c r="D15">
-        <v>0.9862480004888657</v>
+        <v>0.9862480004888668</v>
       </c>
       <c r="E15">
-        <v>0.9709978409118644</v>
+        <v>0.9709978409118653</v>
       </c>
       <c r="F15">
-        <v>0.9626058672532061</v>
+        <v>0.9626058672532072</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030150613960361</v>
+        <v>1.030150613960362</v>
       </c>
       <c r="J15">
-        <v>0.9884813482179474</v>
+        <v>0.9884813482179486</v>
       </c>
       <c r="K15">
-        <v>1.001360604957152</v>
+        <v>1.001360604957153</v>
       </c>
       <c r="L15">
-        <v>0.9864131317283142</v>
+        <v>0.9864131317283152</v>
       </c>
       <c r="M15">
-        <v>0.9781931267093088</v>
+        <v>0.9781931267093098</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9622021921649603</v>
+        <v>0.9622021921649596</v>
       </c>
       <c r="D16">
-        <v>0.989762365368496</v>
+        <v>0.9897623653684954</v>
       </c>
       <c r="E16">
-        <v>0.9750737480755651</v>
+        <v>0.9750737480755644</v>
       </c>
       <c r="F16">
-        <v>0.9681185918936076</v>
+        <v>0.9681185918936067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031835315646939</v>
+        <v>1.031835315646938</v>
       </c>
       <c r="J16">
-        <v>0.991918200224386</v>
+        <v>0.9919182002243851</v>
       </c>
       <c r="K16">
-        <v>1.004281727394653</v>
+        <v>1.004281727394652</v>
       </c>
       <c r="L16">
-        <v>0.9898700753612509</v>
+        <v>0.9898700753612503</v>
       </c>
       <c r="M16">
-        <v>0.983049911980358</v>
+        <v>0.9830499119803573</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9651643123306823</v>
+        <v>0.9651643123306816</v>
       </c>
       <c r="D17">
-        <v>0.9919248132561538</v>
+        <v>0.991924813256153</v>
       </c>
       <c r="E17">
-        <v>0.9775823459252576</v>
+        <v>0.9775823459252567</v>
       </c>
       <c r="F17">
-        <v>0.9715064868615323</v>
+        <v>0.9715064868615318</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.03286634671316</v>
       </c>
       <c r="J17">
-        <v>0.994030280357631</v>
+        <v>0.9940302803576302</v>
       </c>
       <c r="K17">
-        <v>1.0060759268549</v>
+        <v>1.006075926854899</v>
       </c>
       <c r="L17">
-        <v>0.9919951965606452</v>
+        <v>0.9919951965606442</v>
       </c>
       <c r="M17">
-        <v>0.9860332622084799</v>
+        <v>0.9860332622084795</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1038,7 +1038,7 @@
         <v>0.9790289562943529</v>
       </c>
       <c r="F18">
-        <v>0.973458460272672</v>
+        <v>0.9734584602726721</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9674499495139415</v>
+        <v>0.9674499495139406</v>
       </c>
       <c r="D19">
-        <v>0.9935943016737447</v>
+        <v>0.9935943016737443</v>
       </c>
       <c r="E19">
-        <v>0.9795194609049337</v>
+        <v>0.9795194609049327</v>
       </c>
       <c r="F19">
-        <v>0.974120042155545</v>
+        <v>0.9741200421555442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033659305042913</v>
+        <v>1.033659305042912</v>
       </c>
       <c r="J19">
-        <v>0.9956594787003555</v>
+        <v>0.9956594787003549</v>
       </c>
       <c r="K19">
         <v>1.007459386894253</v>
       </c>
       <c r="L19">
-        <v>0.9936348352410631</v>
+        <v>0.9936348352410624</v>
       </c>
       <c r="M19">
-        <v>0.9883339335519752</v>
+        <v>0.9883339335519743</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9648486696460437</v>
+        <v>0.9648486696460435</v>
       </c>
       <c r="D20">
-        <v>0.9916943200599247</v>
+        <v>0.9916943200599246</v>
       </c>
       <c r="E20">
         <v>0.977314931192925</v>
       </c>
       <c r="F20">
-        <v>0.9711455180658041</v>
+        <v>0.9711455180658037</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>1.005884804166962</v>
       </c>
       <c r="L20">
-        <v>0.9917687539486278</v>
+        <v>0.9917687539486277</v>
       </c>
       <c r="M20">
-        <v>0.9857154511101448</v>
+        <v>0.9857154511101442</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561414182011971</v>
+        <v>0.9561414182011975</v>
       </c>
       <c r="D21">
-        <v>0.985342148579361</v>
+        <v>0.9853421485793611</v>
       </c>
       <c r="E21">
-        <v>0.9699474178733551</v>
+        <v>0.9699474178733556</v>
       </c>
       <c r="F21">
-        <v>0.9611834762342361</v>
+        <v>0.9611834762342364</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.029714609431618</v>
       </c>
       <c r="J21">
-        <v>0.9875946096400584</v>
+        <v>0.9875946096400587</v>
       </c>
       <c r="K21">
         <v>1.000606643277496</v>
       </c>
       <c r="L21">
-        <v>0.9855214256469067</v>
+        <v>0.985521425646907</v>
       </c>
       <c r="M21">
-        <v>0.9769395440662693</v>
+        <v>0.9769395440662699</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9504592715243458</v>
+        <v>0.9504592715243466</v>
       </c>
       <c r="D22">
-        <v>0.9812037906328694</v>
+        <v>0.9812037906328698</v>
       </c>
       <c r="E22">
-        <v>0.9651492644353441</v>
+        <v>0.9651492644353444</v>
       </c>
       <c r="F22">
-        <v>0.9546772022844409</v>
+        <v>0.9546772022844414</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027713958535811</v>
       </c>
       <c r="J22">
-        <v>0.983539086648594</v>
+        <v>0.9835390866485945</v>
       </c>
       <c r="K22">
-        <v>0.9971570321369956</v>
+        <v>0.997157032136996</v>
       </c>
       <c r="L22">
-        <v>0.9814442458612923</v>
+        <v>0.981444245861293</v>
       </c>
       <c r="M22">
-        <v>0.9712033495697336</v>
+        <v>0.9712033495697343</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.953492243211725</v>
+        <v>0.9534922432117255</v>
       </c>
       <c r="D23">
-        <v>0.9834120137080495</v>
+        <v>0.9834120137080498</v>
       </c>
       <c r="E23">
-        <v>0.9677094302437889</v>
+        <v>0.9677094302437894</v>
       </c>
       <c r="F23">
-        <v>0.9581506395750231</v>
+        <v>0.9581506395750232</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028783269380029</v>
       </c>
       <c r="J23">
-        <v>0.9857040226614561</v>
+        <v>0.9857040226614563</v>
       </c>
       <c r="K23">
-        <v>0.9989987831554923</v>
+        <v>0.9989987831554926</v>
       </c>
       <c r="L23">
-        <v>0.9836205303730507</v>
+        <v>0.9836205303730513</v>
       </c>
       <c r="M23">
-        <v>0.9742660839447386</v>
+        <v>0.9742660839447388</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964991358844738</v>
+        <v>0.9649913588447391</v>
       </c>
       <c r="D24">
-        <v>0.9917985148021569</v>
+        <v>0.991798514802158</v>
       </c>
       <c r="E24">
-        <v>0.9774358155659697</v>
+        <v>0.9774358155659706</v>
       </c>
       <c r="F24">
-        <v>0.9713086986241807</v>
+        <v>0.9713086986241818</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032806249804866</v>
+        <v>1.032806249804867</v>
       </c>
       <c r="J24">
-        <v>0.9939069799779763</v>
+        <v>0.9939069799779774</v>
       </c>
       <c r="K24">
-        <v>1.005971204975458</v>
+        <v>1.005971204975459</v>
       </c>
       <c r="L24">
-        <v>0.9918711197420469</v>
+        <v>0.9918711197420481</v>
       </c>
       <c r="M24">
-        <v>0.9858591233324764</v>
+        <v>0.9858591233324774</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9775296947377284</v>
+        <v>0.9775296947377281</v>
       </c>
       <c r="D25">
         <v>1.00096524172204</v>
       </c>
       <c r="E25">
-        <v>0.988077063931059</v>
+        <v>0.9880770639310584</v>
       </c>
       <c r="F25">
-        <v>0.9856405626396701</v>
+        <v>0.9856405626396697</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037126573675907</v>
       </c>
       <c r="J25">
-        <v>1.002837681542314</v>
+        <v>1.002837681542313</v>
       </c>
       <c r="K25">
-        <v>1.013548592013043</v>
+        <v>1.013548592013042</v>
       </c>
       <c r="L25">
-        <v>1.000863331561077</v>
+        <v>1.000863331561076</v>
       </c>
       <c r="M25">
-        <v>0.9984659569243031</v>
+        <v>0.9984659569243027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869721628392588</v>
+        <v>0.9869721628392597</v>
       </c>
       <c r="D2">
         <v>1.007880652110476</v>
       </c>
       <c r="E2">
-        <v>0.9961157458768907</v>
+        <v>0.9961157458768912</v>
       </c>
       <c r="F2">
-        <v>0.9964271228032725</v>
+        <v>0.9964271228032729</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,10 +439,10 @@
         <v>1.040324552010826</v>
       </c>
       <c r="J2">
-        <v>1.009549641303456</v>
+        <v>1.009549641303457</v>
       </c>
       <c r="K2">
-        <v>1.019231277963805</v>
+        <v>1.019231277963806</v>
       </c>
       <c r="L2">
         <v>1.007629461094591</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935430338693231</v>
+        <v>0.9935430338693252</v>
       </c>
       <c r="D3">
-        <v>1.012697477609319</v>
+        <v>1.012697477609322</v>
       </c>
       <c r="E3">
-        <v>1.001722538177279</v>
+        <v>1.001722538177281</v>
       </c>
       <c r="F3">
-        <v>1.00393179749555</v>
+        <v>1.003931797495552</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042516586296278</v>
+        <v>1.042516586296279</v>
       </c>
       <c r="J3">
-        <v>1.014211283512318</v>
+        <v>1.01421128351232</v>
       </c>
       <c r="K3">
-        <v>1.023170429335303</v>
+        <v>1.023170429335305</v>
       </c>
       <c r="L3">
-        <v>1.012333426150108</v>
+        <v>1.01233342615011</v>
       </c>
       <c r="M3">
-        <v>1.014514616221919</v>
+        <v>1.014514616221921</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9976739336196143</v>
+        <v>0.997673933619613</v>
       </c>
       <c r="D4">
-        <v>1.015727012947201</v>
+        <v>1.0157270129472</v>
       </c>
       <c r="E4">
-        <v>1.005252808430497</v>
+        <v>1.005252808430496</v>
       </c>
       <c r="F4">
-        <v>1.008649681767889</v>
+        <v>1.008649681767888</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043878806658276</v>
       </c>
       <c r="J4">
-        <v>1.017137328151868</v>
+        <v>1.017137328151867</v>
       </c>
       <c r="K4">
-        <v>1.025639261151239</v>
+        <v>1.025639261151238</v>
       </c>
       <c r="L4">
-        <v>1.015288247410519</v>
+        <v>1.015288247410518</v>
       </c>
       <c r="M4">
-        <v>1.018644821763185</v>
+        <v>1.018644821763184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9993831205955341</v>
+        <v>0.9993831205955331</v>
       </c>
       <c r="D5">
-        <v>1.016980725588202</v>
+        <v>1.016980725588201</v>
       </c>
       <c r="E5">
-        <v>1.006714727418963</v>
+        <v>1.006714727418962</v>
       </c>
       <c r="F5">
         <v>1.010601806620335</v>
@@ -553,13 +553,13 @@
         <v>1.044438573846441</v>
       </c>
       <c r="J5">
-        <v>1.018346846326689</v>
+        <v>1.018346846326688</v>
       </c>
       <c r="K5">
         <v>1.026658865639902</v>
       </c>
       <c r="L5">
-        <v>1.016510197185322</v>
+        <v>1.016510197185321</v>
       </c>
       <c r="M5">
         <v>1.020352504996225</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9996685327311544</v>
+        <v>0.9996685327311536</v>
       </c>
       <c r="D6">
-        <v>1.017190089639984</v>
+        <v>1.017190089639983</v>
       </c>
       <c r="E6">
         <v>1.006958920546644</v>
       </c>
       <c r="F6">
-        <v>1.01092779266198</v>
+        <v>1.010927792661979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044531819005505</v>
+        <v>1.044531819005504</v>
       </c>
       <c r="J6">
-        <v>1.018548750997883</v>
+        <v>1.018548750997882</v>
       </c>
       <c r="K6">
         <v>1.026829013222727</v>
       </c>
       <c r="L6">
-        <v>1.016714208782782</v>
+        <v>1.016714208782781</v>
       </c>
       <c r="M6">
-        <v>1.020637595818777</v>
+        <v>1.020637595818776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9976968777974216</v>
+        <v>0.9976968777974213</v>
       </c>
       <c r="D7">
         <v>1.015743842073097</v>
@@ -632,7 +632,7 @@
         <v>1.017153569386769</v>
       </c>
       <c r="K7">
-        <v>1.025652955925758</v>
+        <v>1.025652955925757</v>
       </c>
       <c r="L7">
         <v>1.015304653443929</v>
@@ -655,10 +655,10 @@
         <v>1.00952721155759</v>
       </c>
       <c r="E8">
-        <v>0.9980315587161205</v>
+        <v>0.9980315587161204</v>
       </c>
       <c r="F8">
-        <v>0.9989930956720278</v>
+        <v>0.9989930956720275</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9732792577457017</v>
+        <v>0.9732792577457023</v>
       </c>
       <c r="D9">
-        <v>0.9978554750016824</v>
+        <v>0.9978554750016831</v>
       </c>
       <c r="E9">
-        <v>0.9844655269965735</v>
+        <v>0.9844655269965744</v>
       </c>
       <c r="F9">
-        <v>0.9807835282775594</v>
+        <v>0.98078352827756</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035670685813319</v>
       </c>
       <c r="J9">
-        <v>0.9998122097944618</v>
+        <v>0.9998122097944629</v>
       </c>
       <c r="K9">
         <v>1.010983441714653</v>
       </c>
       <c r="L9">
-        <v>0.9978157707916376</v>
+        <v>0.9978157707916385</v>
       </c>
       <c r="M9">
-        <v>0.9941962684375224</v>
+        <v>0.994196268437523</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9618645730040815</v>
+        <v>0.9618645730040806</v>
       </c>
       <c r="D10">
-        <v>0.9895159779202161</v>
+        <v>0.9895159779202154</v>
       </c>
       <c r="E10">
-        <v>0.9747879532263301</v>
+        <v>0.9747879532263293</v>
       </c>
       <c r="F10">
-        <v>0.9677323824206225</v>
+        <v>0.9677323824206217</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.031717565573249</v>
       </c>
       <c r="J10">
-        <v>0.991677421968347</v>
+        <v>0.9916774219683462</v>
       </c>
       <c r="K10">
         <v>1.004077140306468</v>
       </c>
       <c r="L10">
-        <v>0.9896278447667017</v>
+        <v>0.989627844766701</v>
       </c>
       <c r="M10">
-        <v>0.9827097478192017</v>
+        <v>0.9827097478192008</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,22 +763,22 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9567047924497986</v>
+        <v>0.9567047924497987</v>
       </c>
       <c r="D11">
         <v>0.9857527685843614</v>
       </c>
       <c r="E11">
-        <v>0.9704235638939084</v>
+        <v>0.9704235638939083</v>
       </c>
       <c r="F11">
-        <v>0.9618283180637303</v>
+        <v>0.9618283180637304</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029912336541039</v>
+        <v>1.02991233654104</v>
       </c>
       <c r="J11">
         <v>0.9879966094593825</v>
@@ -787,7 +787,7 @@
         <v>1.000948462999938</v>
       </c>
       <c r="L11">
-        <v>0.9859256667920131</v>
+        <v>0.985925666792013</v>
       </c>
       <c r="M11">
         <v>0.9775078777751164</v>
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9547526480983533</v>
+        <v>0.9547526480983525</v>
       </c>
       <c r="D12">
-        <v>0.9843301657645555</v>
+        <v>0.9843301657645552</v>
       </c>
       <c r="E12">
-        <v>0.9687739955012681</v>
+        <v>0.9687739955012674</v>
       </c>
       <c r="F12">
-        <v>0.9595937000650542</v>
+        <v>0.9595937000650535</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029226692702784</v>
       </c>
       <c r="J12">
-        <v>0.9866035616544531</v>
+        <v>0.9866035616544525</v>
       </c>
       <c r="K12">
-        <v>0.9997638611539424</v>
+        <v>0.9997638611539423</v>
       </c>
       <c r="L12">
-        <v>0.9845249267052052</v>
+        <v>0.9845249267052045</v>
       </c>
       <c r="M12">
-        <v>0.9755382415229954</v>
+        <v>0.975538241522995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9551730507895686</v>
+        <v>0.9551730507895674</v>
       </c>
       <c r="D13">
-        <v>0.9846364736156653</v>
+        <v>0.9846364736156639</v>
       </c>
       <c r="E13">
-        <v>0.9691291606679261</v>
+        <v>0.9691291606679253</v>
       </c>
       <c r="F13">
-        <v>0.9600749779797016</v>
+        <v>0.9600749779797004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029374467351494</v>
+        <v>1.029374467351493</v>
       </c>
       <c r="J13">
-        <v>0.986903579410119</v>
+        <v>0.9869035794101177</v>
       </c>
       <c r="K13">
-        <v>1.00001900890478</v>
+        <v>1.000019008904779</v>
       </c>
       <c r="L13">
-        <v>0.9848265835095419</v>
+        <v>0.984826583509541</v>
       </c>
       <c r="M13">
-        <v>0.9759624841044647</v>
+        <v>0.9759624841044636</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.95654417161302</v>
+        <v>0.9565441716130183</v>
       </c>
       <c r="D14">
-        <v>0.9856356932198986</v>
+        <v>0.9856356932198973</v>
       </c>
       <c r="E14">
-        <v>0.9702878045815522</v>
+        <v>0.9702878045815513</v>
       </c>
       <c r="F14">
-        <v>0.961644474661089</v>
+        <v>0.9616444746610883</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029855975628672</v>
+        <v>1.029855975628671</v>
       </c>
       <c r="J14">
-        <v>0.9878819992732154</v>
+        <v>0.9878819992732141</v>
       </c>
       <c r="K14">
-        <v>1.000851012487558</v>
+        <v>1.000851012487557</v>
       </c>
       <c r="L14">
-        <v>0.985810415807444</v>
+        <v>0.9858104158074429</v>
       </c>
       <c r="M14">
-        <v>0.9773458502880841</v>
+        <v>0.9773458502880832</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.957384156306032</v>
+        <v>0.9573841563060302</v>
       </c>
       <c r="D15">
-        <v>0.9862480004888668</v>
+        <v>0.9862480004888657</v>
       </c>
       <c r="E15">
-        <v>0.9709978409118653</v>
+        <v>0.9709978409118644</v>
       </c>
       <c r="F15">
-        <v>0.9626058672532072</v>
+        <v>0.9626058672532061</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030150613960362</v>
+        <v>1.030150613960361</v>
       </c>
       <c r="J15">
-        <v>0.9884813482179486</v>
+        <v>0.9884813482179474</v>
       </c>
       <c r="K15">
-        <v>1.001360604957153</v>
+        <v>1.001360604957152</v>
       </c>
       <c r="L15">
-        <v>0.9864131317283152</v>
+        <v>0.9864131317283142</v>
       </c>
       <c r="M15">
-        <v>0.9781931267093098</v>
+        <v>0.9781931267093088</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9622021921649596</v>
+        <v>0.9622021921649603</v>
       </c>
       <c r="D16">
-        <v>0.9897623653684954</v>
+        <v>0.989762365368496</v>
       </c>
       <c r="E16">
-        <v>0.9750737480755644</v>
+        <v>0.9750737480755651</v>
       </c>
       <c r="F16">
-        <v>0.9681185918936067</v>
+        <v>0.9681185918936076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031835315646938</v>
+        <v>1.031835315646939</v>
       </c>
       <c r="J16">
-        <v>0.9919182002243851</v>
+        <v>0.991918200224386</v>
       </c>
       <c r="K16">
-        <v>1.004281727394652</v>
+        <v>1.004281727394653</v>
       </c>
       <c r="L16">
-        <v>0.9898700753612503</v>
+        <v>0.9898700753612509</v>
       </c>
       <c r="M16">
-        <v>0.9830499119803573</v>
+        <v>0.983049911980358</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9651643123306816</v>
+        <v>0.9651643123306823</v>
       </c>
       <c r="D17">
-        <v>0.991924813256153</v>
+        <v>0.9919248132561538</v>
       </c>
       <c r="E17">
-        <v>0.9775823459252567</v>
+        <v>0.9775823459252576</v>
       </c>
       <c r="F17">
-        <v>0.9715064868615318</v>
+        <v>0.9715064868615323</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.03286634671316</v>
       </c>
       <c r="J17">
-        <v>0.9940302803576302</v>
+        <v>0.994030280357631</v>
       </c>
       <c r="K17">
-        <v>1.006075926854899</v>
+        <v>1.0060759268549</v>
       </c>
       <c r="L17">
-        <v>0.9919951965606442</v>
+        <v>0.9919951965606452</v>
       </c>
       <c r="M17">
-        <v>0.9860332622084795</v>
+        <v>0.9860332622084799</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1038,7 +1038,7 @@
         <v>0.9790289562943529</v>
       </c>
       <c r="F18">
-        <v>0.9734584602726721</v>
+        <v>0.973458460272672</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9674499495139406</v>
+        <v>0.9674499495139415</v>
       </c>
       <c r="D19">
-        <v>0.9935943016737443</v>
+        <v>0.9935943016737447</v>
       </c>
       <c r="E19">
-        <v>0.9795194609049327</v>
+        <v>0.9795194609049337</v>
       </c>
       <c r="F19">
-        <v>0.9741200421555442</v>
+        <v>0.974120042155545</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033659305042912</v>
+        <v>1.033659305042913</v>
       </c>
       <c r="J19">
-        <v>0.9956594787003549</v>
+        <v>0.9956594787003555</v>
       </c>
       <c r="K19">
         <v>1.007459386894253</v>
       </c>
       <c r="L19">
-        <v>0.9936348352410624</v>
+        <v>0.9936348352410631</v>
       </c>
       <c r="M19">
-        <v>0.9883339335519743</v>
+        <v>0.9883339335519752</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9648486696460435</v>
+        <v>0.9648486696460437</v>
       </c>
       <c r="D20">
-        <v>0.9916943200599246</v>
+        <v>0.9916943200599247</v>
       </c>
       <c r="E20">
         <v>0.977314931192925</v>
       </c>
       <c r="F20">
-        <v>0.9711455180658037</v>
+        <v>0.9711455180658041</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>1.005884804166962</v>
       </c>
       <c r="L20">
-        <v>0.9917687539486277</v>
+        <v>0.9917687539486278</v>
       </c>
       <c r="M20">
-        <v>0.9857154511101442</v>
+        <v>0.9857154511101448</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561414182011975</v>
+        <v>0.9561414182011971</v>
       </c>
       <c r="D21">
-        <v>0.9853421485793611</v>
+        <v>0.985342148579361</v>
       </c>
       <c r="E21">
-        <v>0.9699474178733556</v>
+        <v>0.9699474178733551</v>
       </c>
       <c r="F21">
-        <v>0.9611834762342364</v>
+        <v>0.9611834762342361</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.029714609431618</v>
       </c>
       <c r="J21">
-        <v>0.9875946096400587</v>
+        <v>0.9875946096400584</v>
       </c>
       <c r="K21">
         <v>1.000606643277496</v>
       </c>
       <c r="L21">
-        <v>0.985521425646907</v>
+        <v>0.9855214256469067</v>
       </c>
       <c r="M21">
-        <v>0.9769395440662699</v>
+        <v>0.9769395440662693</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9504592715243466</v>
+        <v>0.9504592715243458</v>
       </c>
       <c r="D22">
-        <v>0.9812037906328698</v>
+        <v>0.9812037906328694</v>
       </c>
       <c r="E22">
-        <v>0.9651492644353444</v>
+        <v>0.9651492644353441</v>
       </c>
       <c r="F22">
-        <v>0.9546772022844414</v>
+        <v>0.9546772022844409</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027713958535811</v>
       </c>
       <c r="J22">
-        <v>0.9835390866485945</v>
+        <v>0.983539086648594</v>
       </c>
       <c r="K22">
-        <v>0.997157032136996</v>
+        <v>0.9971570321369956</v>
       </c>
       <c r="L22">
-        <v>0.981444245861293</v>
+        <v>0.9814442458612923</v>
       </c>
       <c r="M22">
-        <v>0.9712033495697343</v>
+        <v>0.9712033495697336</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9534922432117255</v>
+        <v>0.953492243211725</v>
       </c>
       <c r="D23">
-        <v>0.9834120137080498</v>
+        <v>0.9834120137080495</v>
       </c>
       <c r="E23">
-        <v>0.9677094302437894</v>
+        <v>0.9677094302437889</v>
       </c>
       <c r="F23">
-        <v>0.9581506395750232</v>
+        <v>0.9581506395750231</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028783269380029</v>
       </c>
       <c r="J23">
-        <v>0.9857040226614563</v>
+        <v>0.9857040226614561</v>
       </c>
       <c r="K23">
-        <v>0.9989987831554926</v>
+        <v>0.9989987831554923</v>
       </c>
       <c r="L23">
-        <v>0.9836205303730513</v>
+        <v>0.9836205303730507</v>
       </c>
       <c r="M23">
-        <v>0.9742660839447388</v>
+        <v>0.9742660839447386</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9649913588447391</v>
+        <v>0.964991358844738</v>
       </c>
       <c r="D24">
-        <v>0.991798514802158</v>
+        <v>0.9917985148021569</v>
       </c>
       <c r="E24">
-        <v>0.9774358155659706</v>
+        <v>0.9774358155659697</v>
       </c>
       <c r="F24">
-        <v>0.9713086986241818</v>
+        <v>0.9713086986241807</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032806249804867</v>
+        <v>1.032806249804866</v>
       </c>
       <c r="J24">
-        <v>0.9939069799779774</v>
+        <v>0.9939069799779763</v>
       </c>
       <c r="K24">
-        <v>1.005971204975459</v>
+        <v>1.005971204975458</v>
       </c>
       <c r="L24">
-        <v>0.9918711197420481</v>
+        <v>0.9918711197420469</v>
       </c>
       <c r="M24">
-        <v>0.9858591233324774</v>
+        <v>0.9858591233324764</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9775296947377281</v>
+        <v>0.9775296947377284</v>
       </c>
       <c r="D25">
         <v>1.00096524172204</v>
       </c>
       <c r="E25">
-        <v>0.9880770639310584</v>
+        <v>0.988077063931059</v>
       </c>
       <c r="F25">
-        <v>0.9856405626396697</v>
+        <v>0.9856405626396701</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037126573675907</v>
       </c>
       <c r="J25">
-        <v>1.002837681542313</v>
+        <v>1.002837681542314</v>
       </c>
       <c r="K25">
-        <v>1.013548592013042</v>
+        <v>1.013548592013043</v>
       </c>
       <c r="L25">
-        <v>1.000863331561076</v>
+        <v>1.000863331561077</v>
       </c>
       <c r="M25">
-        <v>0.9984659569243027</v>
+        <v>0.9984659569243031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869721628392597</v>
+        <v>0.9869805631545351</v>
       </c>
       <c r="D2">
-        <v>1.007880652110476</v>
+        <v>1.007887321982877</v>
       </c>
       <c r="E2">
-        <v>0.9961157458768912</v>
+        <v>0.9961235154603907</v>
       </c>
       <c r="F2">
-        <v>0.9964271228032729</v>
+        <v>0.996433540734306</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040324552010826</v>
+        <v>1.040328089888674</v>
       </c>
       <c r="J2">
-        <v>1.009549641303457</v>
+        <v>1.009557781122792</v>
       </c>
       <c r="K2">
-        <v>1.019231277963806</v>
+        <v>1.019237856735858</v>
       </c>
       <c r="L2">
-        <v>1.007629461094591</v>
+        <v>1.007637121367471</v>
       </c>
       <c r="M2">
-        <v>1.007936458931199</v>
+        <v>1.007942786639192</v>
+      </c>
+      <c r="N2">
+        <v>1.008422206535901</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935430338693252</v>
+        <v>0.9935481644131027</v>
       </c>
       <c r="D3">
-        <v>1.012697477609322</v>
+        <v>1.012701639419504</v>
       </c>
       <c r="E3">
-        <v>1.001722538177281</v>
+        <v>1.001727456074533</v>
       </c>
       <c r="F3">
-        <v>1.003931797495552</v>
+        <v>1.003935806938114</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042516586296279</v>
+        <v>1.042518794491553</v>
       </c>
       <c r="J3">
-        <v>1.01421128351232</v>
+        <v>1.014216271701469</v>
       </c>
       <c r="K3">
-        <v>1.023170429335305</v>
+        <v>1.023174539544914</v>
       </c>
       <c r="L3">
-        <v>1.01233342615011</v>
+        <v>1.012338281392377</v>
       </c>
       <c r="M3">
-        <v>1.014514616221921</v>
+        <v>1.014518574863614</v>
+      </c>
+      <c r="N3">
+        <v>1.011631457277476</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997673933619613</v>
+        <v>0.9976770404783382</v>
       </c>
       <c r="D4">
-        <v>1.0157270129472</v>
+        <v>1.015729619014422</v>
       </c>
       <c r="E4">
-        <v>1.005252808430496</v>
+        <v>1.005255959447493</v>
       </c>
       <c r="F4">
-        <v>1.008649681767888</v>
+        <v>1.008652211139659</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043878806658276</v>
+        <v>1.043880189285412</v>
       </c>
       <c r="J4">
-        <v>1.017137328151867</v>
+        <v>1.017140355034869</v>
       </c>
       <c r="K4">
-        <v>1.025639261151238</v>
+        <v>1.025641836958443</v>
       </c>
       <c r="L4">
-        <v>1.015288247410518</v>
+        <v>1.015291360888818</v>
       </c>
       <c r="M4">
-        <v>1.018644821763184</v>
+        <v>1.018647321252879</v>
+      </c>
+      <c r="N4">
+        <v>1.013644607517733</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9993831205955331</v>
+        <v>0.9993853969465466</v>
       </c>
       <c r="D5">
-        <v>1.016980725588201</v>
+        <v>1.016982692449248</v>
       </c>
       <c r="E5">
-        <v>1.006714727418962</v>
+        <v>1.006717152941992</v>
       </c>
       <c r="F5">
-        <v>1.010601806620335</v>
+        <v>1.010603730882535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044438573846441</v>
+        <v>1.04443961708197</v>
       </c>
       <c r="J5">
-        <v>1.018346846326688</v>
+        <v>1.018349065944572</v>
       </c>
       <c r="K5">
-        <v>1.026658865639902</v>
+        <v>1.026660810301462</v>
       </c>
       <c r="L5">
-        <v>1.016510197185321</v>
+        <v>1.016512594637973</v>
       </c>
       <c r="M5">
-        <v>1.020352504996225</v>
+        <v>1.020354407200048</v>
+      </c>
+      <c r="N5">
+        <v>1.014476456792719</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9996685327311536</v>
+        <v>0.999670670775079</v>
       </c>
       <c r="D6">
-        <v>1.017190089639983</v>
+        <v>1.017191950011173</v>
       </c>
       <c r="E6">
-        <v>1.006958920546644</v>
+        <v>1.006961225231155</v>
       </c>
       <c r="F6">
-        <v>1.010927792661979</v>
+        <v>1.010929616282496</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044531819005504</v>
+        <v>1.044532805687951</v>
       </c>
       <c r="J6">
-        <v>1.018548750997882</v>
+        <v>1.018550836046718</v>
       </c>
       <c r="K6">
-        <v>1.026829013222727</v>
+        <v>1.026830852697081</v>
       </c>
       <c r="L6">
-        <v>1.016714208782781</v>
+        <v>1.016716486926078</v>
       </c>
       <c r="M6">
-        <v>1.020637595818776</v>
+        <v>1.020639398641043</v>
+      </c>
+      <c r="N6">
+        <v>1.014615298536063</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>0.9976968777974213</v>
+        <v>0.997699973481523</v>
       </c>
       <c r="D7">
-        <v>1.015743842073097</v>
+        <v>1.015746439542501</v>
       </c>
       <c r="E7">
-        <v>1.005272428423263</v>
+        <v>1.005275569679997</v>
       </c>
       <c r="F7">
-        <v>1.008675886769675</v>
+        <v>1.008678407990747</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043886336343027</v>
+        <v>1.04388771440585</v>
       </c>
       <c r="J7">
-        <v>1.017153569386769</v>
+        <v>1.017156585416958</v>
       </c>
       <c r="K7">
-        <v>1.025652955925757</v>
+        <v>1.025655523246307</v>
       </c>
       <c r="L7">
-        <v>1.015304653443929</v>
+        <v>1.015307757292614</v>
       </c>
       <c r="M7">
-        <v>1.018667750507193</v>
+        <v>1.018670241954386</v>
+      </c>
+      <c r="N7">
+        <v>1.013655778721588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9892187918509849</v>
+        <v>0.9892260669241123</v>
       </c>
       <c r="D8">
-        <v>1.00952721155759</v>
+        <v>1.009533019124832</v>
       </c>
       <c r="E8">
-        <v>0.9980315587161204</v>
+        <v>0.998038347410078</v>
       </c>
       <c r="F8">
-        <v>0.9989930956720275</v>
+        <v>0.9989986823566424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041077328511906</v>
+        <v>1.041080409386733</v>
       </c>
       <c r="J8">
-        <v>1.011144424392925</v>
+        <v>1.011151482057258</v>
       </c>
       <c r="K8">
-        <v>1.020579658849784</v>
+        <v>1.02058538960231</v>
       </c>
       <c r="L8">
-        <v>1.009238259976214</v>
+        <v>1.009244956256691</v>
       </c>
       <c r="M8">
-        <v>1.010186723413201</v>
+        <v>1.010192234231093</v>
+      </c>
+      <c r="N8">
+        <v>1.00952037146034</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9732792577457023</v>
+        <v>0.9732946949174743</v>
       </c>
       <c r="D9">
-        <v>0.9978554750016831</v>
+        <v>0.9978675171279094</v>
       </c>
       <c r="E9">
-        <v>0.9844655269965744</v>
+        <v>0.9844794176160214</v>
       </c>
       <c r="F9">
-        <v>0.98078352827756</v>
+        <v>0.9807952029065353</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035670685813319</v>
+        <v>1.035677067788771</v>
       </c>
       <c r="J9">
-        <v>0.9998122097944629</v>
+        <v>0.9998270587496977</v>
       </c>
       <c r="K9">
-        <v>1.010983441714653</v>
+        <v>1.010995287388223</v>
       </c>
       <c r="L9">
-        <v>0.9978157707916385</v>
+        <v>0.9978294267807736</v>
       </c>
       <c r="M9">
-        <v>0.994196268437523</v>
+        <v>0.9942077439495323</v>
+      </c>
+      <c r="N9">
+        <v>1.001712171842891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9618645730040806</v>
+        <v>0.9618861390797354</v>
       </c>
       <c r="D10">
-        <v>0.9895159779202154</v>
+        <v>0.9895326688304406</v>
       </c>
       <c r="E10">
-        <v>0.9747879532263293</v>
+        <v>0.9748071538679359</v>
       </c>
       <c r="F10">
-        <v>0.9677323824206217</v>
+        <v>0.9677487195902087</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031717565573249</v>
+        <v>1.031726405479883</v>
       </c>
       <c r="J10">
-        <v>0.9916774219683462</v>
+        <v>0.9916980322756009</v>
       </c>
       <c r="K10">
-        <v>1.004077140306468</v>
+        <v>1.004093521477972</v>
       </c>
       <c r="L10">
-        <v>0.989627844766701</v>
+        <v>0.9896466748513721</v>
       </c>
       <c r="M10">
-        <v>0.9827097478192008</v>
+        <v>0.9827257636282141</v>
+      </c>
+      <c r="N10">
+        <v>0.996101516002413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9567047924497987</v>
+        <v>0.956729217411355</v>
       </c>
       <c r="D11">
-        <v>0.9857527685843614</v>
+        <v>0.9857716177928678</v>
       </c>
       <c r="E11">
-        <v>0.9704235638939083</v>
+        <v>0.970445233878611</v>
       </c>
       <c r="F11">
-        <v>0.9618283180637304</v>
+        <v>0.9618468575471888</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02991233654104</v>
+        <v>1.029922316940664</v>
       </c>
       <c r="J11">
-        <v>0.9879966094593825</v>
+        <v>0.9880198811438675</v>
       </c>
       <c r="K11">
-        <v>1.000948462999938</v>
+        <v>1.000966943137114</v>
       </c>
       <c r="L11">
-        <v>0.985925666792013</v>
+        <v>0.9859468946168429</v>
       </c>
       <c r="M11">
-        <v>0.9775078777751164</v>
+        <v>0.9775260299817541</v>
+      </c>
+      <c r="N11">
+        <v>0.9935617218333099</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9547526480983525</v>
+        <v>0.9547781701180249</v>
       </c>
       <c r="D12">
-        <v>0.9843301657645552</v>
+        <v>0.9843498414278992</v>
       </c>
       <c r="E12">
-        <v>0.9687739955012674</v>
+        <v>0.9687966117170348</v>
       </c>
       <c r="F12">
-        <v>0.9595937000650535</v>
+        <v>0.9596130893479026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029226692702784</v>
+        <v>1.029237109740748</v>
       </c>
       <c r="J12">
-        <v>0.9866035616544525</v>
+        <v>0.9866278502299505</v>
       </c>
       <c r="K12">
-        <v>0.9997638611539423</v>
+        <v>0.9997831439220978</v>
       </c>
       <c r="L12">
-        <v>0.9845249267052045</v>
+        <v>0.9845470719371857</v>
       </c>
       <c r="M12">
-        <v>0.975538241522995</v>
+        <v>0.9755572167168446</v>
+      </c>
+      <c r="N12">
+        <v>0.992600362645375</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9551730507895674</v>
+        <v>0.9551983358184557</v>
       </c>
       <c r="D13">
-        <v>0.9846364736156639</v>
+        <v>0.9846559708284435</v>
       </c>
       <c r="E13">
-        <v>0.9691291606679253</v>
+        <v>0.9691515725393455</v>
       </c>
       <c r="F13">
-        <v>0.9600749779797004</v>
+        <v>0.9600941834642657</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029374467351493</v>
+        <v>1.02938479011242</v>
       </c>
       <c r="J13">
-        <v>0.9869035794101177</v>
+        <v>0.9869276485177718</v>
       </c>
       <c r="K13">
-        <v>1.000019008904779</v>
+        <v>1.000038118417773</v>
       </c>
       <c r="L13">
-        <v>0.984826583509541</v>
+        <v>0.9848485306864361</v>
       </c>
       <c r="M13">
-        <v>0.9759624841044636</v>
+        <v>0.9759812813636255</v>
+      </c>
+      <c r="N13">
+        <v>0.9928074146566204</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9565441716130183</v>
+        <v>0.9565686865131086</v>
       </c>
       <c r="D14">
-        <v>0.9856356932198973</v>
+        <v>0.9856546102194808</v>
       </c>
       <c r="E14">
-        <v>0.9702878045815513</v>
+        <v>0.9703095521681873</v>
       </c>
       <c r="F14">
-        <v>0.9616444746610883</v>
+        <v>0.9616630837141683</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029855975628671</v>
+        <v>1.029865991845614</v>
       </c>
       <c r="J14">
-        <v>0.9878819992732141</v>
+        <v>0.9879053544151346</v>
       </c>
       <c r="K14">
-        <v>1.000851012487557</v>
+        <v>1.00086955848448</v>
       </c>
       <c r="L14">
-        <v>0.9858104158074429</v>
+        <v>0.9858317188990605</v>
       </c>
       <c r="M14">
-        <v>0.9773458502880832</v>
+        <v>0.9773640698980012</v>
+      </c>
+      <c r="N14">
+        <v>0.9934826307359642</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9573841563060302</v>
+        <v>0.9574082015033469</v>
       </c>
       <c r="D15">
-        <v>0.9862480004888657</v>
+        <v>0.9862665633777875</v>
       </c>
       <c r="E15">
-        <v>0.9709978409118644</v>
+        <v>0.9710191831677949</v>
       </c>
       <c r="F15">
-        <v>0.9626058672532061</v>
+        <v>0.9626241131730564</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030150613960361</v>
+        <v>1.030160443080375</v>
       </c>
       <c r="J15">
-        <v>0.9884813482179474</v>
+        <v>0.9885042673248758</v>
       </c>
       <c r="K15">
-        <v>1.001360604957152</v>
+        <v>1.001378806886608</v>
       </c>
       <c r="L15">
-        <v>0.9864131317283142</v>
+        <v>0.9864340416293479</v>
       </c>
       <c r="M15">
-        <v>0.9781931267093088</v>
+        <v>0.9782109944372167</v>
+      </c>
+      <c r="N15">
+        <v>0.9938962284600125</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9622021921649603</v>
+        <v>0.962223573179087</v>
       </c>
       <c r="D16">
-        <v>0.989762365368496</v>
+        <v>0.9897789163410754</v>
       </c>
       <c r="E16">
-        <v>0.9750737480755651</v>
+        <v>0.9750927887001888</v>
       </c>
       <c r="F16">
-        <v>0.9681185918936076</v>
+        <v>0.9681347871089037</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031835315646939</v>
+        <v>1.031844081595538</v>
       </c>
       <c r="J16">
-        <v>0.991918200224386</v>
+        <v>0.9919386376856202</v>
       </c>
       <c r="K16">
-        <v>1.004281727394653</v>
+        <v>1.004297972330028</v>
       </c>
       <c r="L16">
-        <v>0.9898700753612509</v>
+        <v>0.9898887498870304</v>
       </c>
       <c r="M16">
-        <v>0.983049911980358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9830657899057499</v>
+      </c>
+      <c r="N16">
+        <v>0.9962676342450346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9651643123306823</v>
+        <v>0.9651840799027832</v>
       </c>
       <c r="D17">
-        <v>0.9919248132561538</v>
+        <v>0.9919401430416138</v>
       </c>
       <c r="E17">
-        <v>0.9775823459252576</v>
+        <v>0.9775999905943643</v>
       </c>
       <c r="F17">
-        <v>0.9715064868615323</v>
+        <v>0.9715214475646226</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03286634671316</v>
+        <v>1.032874467184827</v>
       </c>
       <c r="J17">
-        <v>0.994030280357631</v>
+        <v>0.9940492079342557</v>
       </c>
       <c r="K17">
-        <v>1.0060759268549</v>
+        <v>1.006090982144978</v>
       </c>
       <c r="L17">
-        <v>0.9919951965606452</v>
+        <v>0.9920125130754486</v>
       </c>
       <c r="M17">
-        <v>0.9860332622084799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9860479401053902</v>
+      </c>
+      <c r="N17">
+        <v>0.9977246837237778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9668713327982794</v>
+        <v>0.966890178730123</v>
       </c>
       <c r="D18">
-        <v>0.9931715933569025</v>
+        <v>0.9931862246464952</v>
       </c>
       <c r="E18">
-        <v>0.9790289562943529</v>
+        <v>0.9790458028735799</v>
       </c>
       <c r="F18">
-        <v>0.973458460272672</v>
+        <v>0.9734727182798295</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033458785743571</v>
+        <v>1.033466536952731</v>
       </c>
       <c r="J18">
-        <v>0.9952470878575677</v>
+        <v>0.9952651505764426</v>
       </c>
       <c r="K18">
-        <v>1.007109244248296</v>
+        <v>1.007123618466833</v>
       </c>
       <c r="L18">
-        <v>0.9932197695439131</v>
+        <v>0.9932363088952945</v>
       </c>
       <c r="M18">
-        <v>0.9877516218241039</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9877656159154059</v>
+      </c>
+      <c r="N18">
+        <v>0.9985640118046567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9674499495139415</v>
+        <v>0.9674684843698979</v>
       </c>
       <c r="D19">
-        <v>0.9935943016737447</v>
+        <v>0.9936086970540174</v>
       </c>
       <c r="E19">
-        <v>0.9795194609049337</v>
+        <v>0.9795360379992034</v>
       </c>
       <c r="F19">
-        <v>0.974120042155545</v>
+        <v>0.9741340633928605</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033659305042913</v>
+        <v>1.03366693152669</v>
       </c>
       <c r="J19">
-        <v>0.9956594787003555</v>
+        <v>0.9956772491190168</v>
       </c>
       <c r="K19">
-        <v>1.007459386894253</v>
+        <v>1.007473530986253</v>
       </c>
       <c r="L19">
-        <v>0.9936348352410631</v>
+        <v>0.9936511120469254</v>
       </c>
       <c r="M19">
-        <v>0.9883339335519752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9883476971172317</v>
+      </c>
+      <c r="N19">
+        <v>0.998848451976625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9648486696460437</v>
+        <v>0.9648686082840778</v>
       </c>
       <c r="D20">
-        <v>0.9916943200599247</v>
+        <v>0.9917097794199667</v>
       </c>
       <c r="E20">
-        <v>0.977314931192925</v>
+        <v>0.9773327239415069</v>
       </c>
       <c r="F20">
-        <v>0.9711455180658041</v>
+        <v>0.9711606093953049</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032756659159533</v>
+        <v>1.032764848126137</v>
       </c>
       <c r="J20">
-        <v>0.9938052533393245</v>
+        <v>0.9938243412525568</v>
       </c>
       <c r="K20">
-        <v>1.005884804166962</v>
+        <v>1.005899985749785</v>
       </c>
       <c r="L20">
-        <v>0.9917687539486278</v>
+        <v>0.9917862145986353</v>
       </c>
       <c r="M20">
-        <v>0.9857154511101448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9857302560627103</v>
+      </c>
+      <c r="N20">
+        <v>0.997569456242265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561414182011971</v>
+        <v>0.9561661588763513</v>
       </c>
       <c r="D21">
-        <v>0.985342148579361</v>
+        <v>0.9853612357275792</v>
       </c>
       <c r="E21">
-        <v>0.9699474178733551</v>
+        <v>0.9699693602438565</v>
       </c>
       <c r="F21">
-        <v>0.9611834762342361</v>
+        <v>0.9612022600070187</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029714609431618</v>
+        <v>1.029724715545159</v>
       </c>
       <c r="J21">
-        <v>0.9875946096400584</v>
+        <v>0.9876181742156154</v>
       </c>
       <c r="K21">
-        <v>1.000606643277496</v>
+        <v>1.000625354557588</v>
       </c>
       <c r="L21">
-        <v>0.9855214256469067</v>
+        <v>0.9855429176384197</v>
       </c>
       <c r="M21">
-        <v>0.9769395440662693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9769579329326883</v>
+      </c>
+      <c r="N21">
+        <v>0.993284304408297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9504592715243458</v>
+        <v>0.9504872374781825</v>
       </c>
       <c r="D22">
-        <v>0.9812037906328694</v>
+        <v>0.981225303841883</v>
       </c>
       <c r="E22">
-        <v>0.9651492644353441</v>
+        <v>0.965173985832493</v>
       </c>
       <c r="F22">
-        <v>0.9546772022844409</v>
+        <v>0.9546984941020799</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027713958535811</v>
+        <v>1.027725346277476</v>
       </c>
       <c r="J22">
-        <v>0.983539086648594</v>
+        <v>0.9835656318885981</v>
       </c>
       <c r="K22">
-        <v>0.9971570321369956</v>
+        <v>0.9971780973244266</v>
       </c>
       <c r="L22">
-        <v>0.9814442458612923</v>
+        <v>0.9814684294258934</v>
       </c>
       <c r="M22">
-        <v>0.9712033495697336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9712241645247648</v>
+      </c>
+      <c r="N22">
+        <v>0.9904852915608606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.953492243211725</v>
+        <v>0.9535184781981579</v>
       </c>
       <c r="D23">
-        <v>0.9834120137080495</v>
+        <v>0.9834322259465799</v>
       </c>
       <c r="E23">
-        <v>0.9677094302437889</v>
+        <v>0.9677326609974797</v>
       </c>
       <c r="F23">
-        <v>0.9581506395750231</v>
+        <v>0.9581705825362831</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028783269380029</v>
+        <v>1.028793969885635</v>
       </c>
       <c r="J23">
-        <v>0.9857040226614561</v>
+        <v>0.9857289708075375</v>
       </c>
       <c r="K23">
-        <v>0.9989987831554923</v>
+        <v>0.9990185867076276</v>
       </c>
       <c r="L23">
-        <v>0.9836205303730507</v>
+        <v>0.9836432710153098</v>
       </c>
       <c r="M23">
-        <v>0.9742660839447386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9742855949388269</v>
+      </c>
+      <c r="N23">
+        <v>0.9919795422205172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964991358844738</v>
+        <v>0.9650112201256497</v>
       </c>
       <c r="D24">
-        <v>0.9917985148021569</v>
+        <v>0.9918139155705914</v>
       </c>
       <c r="E24">
-        <v>0.9774358155659697</v>
+        <v>0.9774535413541707</v>
       </c>
       <c r="F24">
-        <v>0.9713086986241807</v>
+        <v>0.9713237308758524</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032806249804866</v>
+        <v>1.032814407799321</v>
       </c>
       <c r="J24">
-        <v>0.9939069799779763</v>
+        <v>0.9939259953933186</v>
       </c>
       <c r="K24">
-        <v>1.005971204975458</v>
+        <v>1.005986329452585</v>
       </c>
       <c r="L24">
-        <v>0.9918711197420469</v>
+        <v>0.9918885152176232</v>
       </c>
       <c r="M24">
-        <v>0.9858591233324764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9858738708244362</v>
+      </c>
+      <c r="N24">
+        <v>0.99763962934144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9775296947377284</v>
+        <v>0.9775429130977156</v>
       </c>
       <c r="D25">
-        <v>1.00096524172204</v>
+        <v>1.000975593791765</v>
       </c>
       <c r="E25">
-        <v>0.988077063931059</v>
+        <v>0.9880890271185321</v>
       </c>
       <c r="F25">
-        <v>0.9856405626396701</v>
+        <v>0.9856505687745042</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037126573675907</v>
+        <v>1.037132061431771</v>
       </c>
       <c r="J25">
-        <v>1.002837681542314</v>
+        <v>1.002850425894412</v>
       </c>
       <c r="K25">
-        <v>1.013548592013043</v>
+        <v>1.013558783777989</v>
       </c>
       <c r="L25">
-        <v>1.000863331561077</v>
+        <v>1.000875103247624</v>
       </c>
       <c r="M25">
-        <v>0.9984659569243031</v>
+        <v>0.9984758018676365</v>
+      </c>
+      <c r="N25">
+        <v>1.003797819201618</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869805631545351</v>
+        <v>1.028764957414813</v>
       </c>
       <c r="D2">
-        <v>1.007887321982877</v>
+        <v>1.046623319015349</v>
       </c>
       <c r="E2">
-        <v>0.9961235154603907</v>
+        <v>1.040552260738431</v>
       </c>
       <c r="F2">
-        <v>0.996433540734306</v>
+        <v>1.05109801535785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040328089888674</v>
+        <v>1.060554575425027</v>
       </c>
       <c r="J2">
-        <v>1.009557781122792</v>
+        <v>1.050118080495416</v>
       </c>
       <c r="K2">
-        <v>1.019237856735858</v>
+        <v>1.057469194433741</v>
       </c>
       <c r="L2">
-        <v>1.007637121367471</v>
+        <v>1.051474132149771</v>
       </c>
       <c r="M2">
-        <v>1.007942786639192</v>
+        <v>1.061888576944733</v>
       </c>
       <c r="N2">
-        <v>1.008422206535901</v>
+        <v>1.051609368619947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935481644131027</v>
+        <v>1.035572604387058</v>
       </c>
       <c r="D3">
-        <v>1.012701639419504</v>
+        <v>1.052081535045148</v>
       </c>
       <c r="E3">
-        <v>1.001727456074533</v>
+        <v>1.046383953646055</v>
       </c>
       <c r="F3">
-        <v>1.003935806938114</v>
+        <v>1.057231141782157</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042518794491553</v>
+        <v>1.063042014958065</v>
       </c>
       <c r="J3">
-        <v>1.014216271701469</v>
+        <v>1.055138358889228</v>
       </c>
       <c r="K3">
-        <v>1.023174539544914</v>
+        <v>1.062088723230034</v>
       </c>
       <c r="L3">
-        <v>1.012338281392377</v>
+        <v>1.056455844842958</v>
       </c>
       <c r="M3">
-        <v>1.014518574863614</v>
+        <v>1.067180588310682</v>
       </c>
       <c r="N3">
-        <v>1.011631457277476</v>
+        <v>1.056636776384912</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9976770404783382</v>
+        <v>1.039858530488824</v>
       </c>
       <c r="D4">
-        <v>1.015729619014422</v>
+        <v>1.055519764460639</v>
       </c>
       <c r="E4">
-        <v>1.005255959447493</v>
+        <v>1.050060671156485</v>
       </c>
       <c r="F4">
-        <v>1.008652211139659</v>
+        <v>1.061098475726544</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043880189285412</v>
+        <v>1.064594327573474</v>
       </c>
       <c r="J4">
-        <v>1.017140355034869</v>
+        <v>1.058294826776259</v>
       </c>
       <c r="K4">
-        <v>1.025641836958443</v>
+        <v>1.064991293177574</v>
       </c>
       <c r="L4">
-        <v>1.015291360888818</v>
+        <v>1.059590238926843</v>
       </c>
       <c r="M4">
-        <v>1.018647321252879</v>
+        <v>1.070511447386659</v>
       </c>
       <c r="N4">
-        <v>1.013644607517733</v>
+        <v>1.059797726818394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9993853969465466</v>
+        <v>1.041633262800862</v>
       </c>
       <c r="D5">
-        <v>1.016982692449248</v>
+        <v>1.056943844978558</v>
       </c>
       <c r="E5">
-        <v>1.006717152941992</v>
+        <v>1.051584321241409</v>
       </c>
       <c r="F5">
-        <v>1.010603730882535</v>
+        <v>1.062701255736455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04443961708197</v>
+        <v>1.065233767922162</v>
       </c>
       <c r="J5">
-        <v>1.018349065944572</v>
+        <v>1.059600812750553</v>
       </c>
       <c r="K5">
-        <v>1.026660810301462</v>
+        <v>1.066191749287012</v>
       </c>
       <c r="L5">
-        <v>1.016512594637973</v>
+        <v>1.060887605968596</v>
       </c>
       <c r="M5">
-        <v>1.020354407200048</v>
+        <v>1.071890426130967</v>
       </c>
       <c r="N5">
-        <v>1.014476456792719</v>
+        <v>1.061105567442571</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.999670670775079</v>
+        <v>1.041929700497982</v>
       </c>
       <c r="D6">
-        <v>1.017191950011173</v>
+        <v>1.057181731648033</v>
       </c>
       <c r="E6">
-        <v>1.006961225231155</v>
+        <v>1.051838887500433</v>
       </c>
       <c r="F6">
-        <v>1.010929616282496</v>
+        <v>1.062969050854111</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044532805687951</v>
+        <v>1.06534037673919</v>
       </c>
       <c r="J6">
-        <v>1.018550836046718</v>
+        <v>1.059818891022212</v>
       </c>
       <c r="K6">
-        <v>1.026830852697081</v>
+        <v>1.066392177100408</v>
       </c>
       <c r="L6">
-        <v>1.016716486926078</v>
+        <v>1.06110427504801</v>
       </c>
       <c r="M6">
-        <v>1.020639398641043</v>
+        <v>1.072120742017169</v>
       </c>
       <c r="N6">
-        <v>1.014615298536063</v>
+        <v>1.061323955410389</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997699973481523</v>
+        <v>1.039882349098408</v>
       </c>
       <c r="D7">
-        <v>1.015746439542501</v>
+        <v>1.055538875647264</v>
       </c>
       <c r="E7">
-        <v>1.005275569679997</v>
+        <v>1.050081115422747</v>
       </c>
       <c r="F7">
-        <v>1.008678407990747</v>
+        <v>1.061119981209977</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04388771440585</v>
+        <v>1.064602922788429</v>
       </c>
       <c r="J7">
-        <v>1.017156585416958</v>
+        <v>1.058312358607597</v>
       </c>
       <c r="K7">
-        <v>1.025655523246307</v>
+        <v>1.065007410274306</v>
       </c>
       <c r="L7">
-        <v>1.015307757292614</v>
+        <v>1.059607653030937</v>
       </c>
       <c r="M7">
-        <v>1.018670241954386</v>
+        <v>1.070529955783782</v>
       </c>
       <c r="N7">
-        <v>1.013655778721588</v>
+        <v>1.059815283546943</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9892260669241123</v>
+        <v>1.031091188522778</v>
       </c>
       <c r="D8">
-        <v>1.009533019124832</v>
+        <v>1.048487990865452</v>
       </c>
       <c r="E8">
-        <v>0.998038347410078</v>
+        <v>1.042543852089857</v>
       </c>
       <c r="F8">
-        <v>0.9989986823566424</v>
+        <v>1.053192429879082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041080409386733</v>
+        <v>1.061407409774364</v>
       </c>
       <c r="J8">
-        <v>1.011151482057258</v>
+        <v>1.051834397782638</v>
       </c>
       <c r="K8">
-        <v>1.02058538960231</v>
+        <v>1.05904890087431</v>
       </c>
       <c r="L8">
-        <v>1.009244956256691</v>
+        <v>1.053176801363515</v>
       </c>
       <c r="M8">
-        <v>1.010192234231093</v>
+        <v>1.063697039700558</v>
       </c>
       <c r="N8">
-        <v>1.00952037146034</v>
+        <v>1.053328123274582</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9732946949174743</v>
+        <v>1.014617405668736</v>
       </c>
       <c r="D9">
-        <v>0.9978675171279094</v>
+        <v>1.035294673424552</v>
       </c>
       <c r="E9">
-        <v>0.9844794176160214</v>
+        <v>1.028465729390173</v>
       </c>
       <c r="F9">
-        <v>0.9807952029065353</v>
+        <v>1.038389903461435</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035677067788771</v>
+        <v>1.055311272246415</v>
       </c>
       <c r="J9">
-        <v>0.9998270587496977</v>
+        <v>1.039664338875279</v>
       </c>
       <c r="K9">
-        <v>1.010995287388223</v>
+        <v>1.047839944977567</v>
       </c>
       <c r="L9">
-        <v>0.9978294267807736</v>
+        <v>1.041113255532965</v>
       </c>
       <c r="M9">
-        <v>0.9942077439495323</v>
+        <v>1.050889390591911</v>
       </c>
       <c r="N9">
-        <v>1.001712171842891</v>
+        <v>1.041140781487648</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9618861390797354</v>
+        <v>1.002864587378432</v>
       </c>
       <c r="D10">
-        <v>0.9895326688304406</v>
+        <v>1.025901987527414</v>
       </c>
       <c r="E10">
-        <v>0.9748071538679359</v>
+        <v>1.018459226723111</v>
       </c>
       <c r="F10">
-        <v>0.9677487195902087</v>
+        <v>1.027871592338803</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031726405479883</v>
+        <v>1.05089265290366</v>
       </c>
       <c r="J10">
-        <v>0.9916980322756009</v>
+        <v>1.030965010455432</v>
       </c>
       <c r="K10">
-        <v>1.004093521477972</v>
+        <v>1.039818809036076</v>
       </c>
       <c r="L10">
-        <v>0.9896466748513721</v>
+        <v>1.032503005051744</v>
       </c>
       <c r="M10">
-        <v>0.9827257636282141</v>
+        <v>1.041755213528585</v>
       </c>
       <c r="N10">
-        <v>0.996101516002413</v>
+        <v>1.032429099023618</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.956729217411355</v>
+        <v>0.997564608489194</v>
       </c>
       <c r="D11">
-        <v>0.9857716177928678</v>
+        <v>1.021672671448527</v>
       </c>
       <c r="E11">
-        <v>0.970445233878611</v>
+        <v>1.013957082302268</v>
       </c>
       <c r="F11">
-        <v>0.9618468575471888</v>
+        <v>1.023139901364854</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029922316940664</v>
+        <v>1.048884561405344</v>
       </c>
       <c r="J11">
-        <v>0.9880198811438675</v>
+        <v>1.027039054737708</v>
       </c>
       <c r="K11">
-        <v>1.000966943137114</v>
+        <v>1.036197128236163</v>
       </c>
       <c r="L11">
-        <v>0.9859468946168429</v>
+        <v>1.028620502559851</v>
       </c>
       <c r="M11">
-        <v>0.9775260299817541</v>
+        <v>1.0376382400348</v>
       </c>
       <c r="N11">
-        <v>0.9935617218333099</v>
+        <v>1.028497567998461</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9547781701180249</v>
+        <v>0.9955615381118945</v>
       </c>
       <c r="D12">
-        <v>0.9843498414278992</v>
+        <v>1.020075357806193</v>
       </c>
       <c r="E12">
-        <v>0.9687966117170348</v>
+        <v>1.012257238352012</v>
       </c>
       <c r="F12">
-        <v>0.9596130893479026</v>
+        <v>1.021353497917791</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029237109740748</v>
+        <v>1.048123390330082</v>
       </c>
       <c r="J12">
-        <v>0.9866278502299505</v>
+        <v>1.025554936753704</v>
       </c>
       <c r="K12">
-        <v>0.9997831439220978</v>
+        <v>1.034827793954494</v>
       </c>
       <c r="L12">
-        <v>0.9845470719371857</v>
+        <v>1.027153317239924</v>
       </c>
       <c r="M12">
-        <v>0.9755572167168446</v>
+        <v>1.036082722758018</v>
       </c>
       <c r="N12">
-        <v>0.992600362645375</v>
+        <v>1.02701134239669</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9551983358184557</v>
+        <v>0.9959928085512691</v>
       </c>
       <c r="D13">
-        <v>0.9846559708284435</v>
+        <v>1.020419214081703</v>
       </c>
       <c r="E13">
-        <v>0.9691515725393455</v>
+        <v>1.012623143849588</v>
       </c>
       <c r="F13">
-        <v>0.9600941834642657</v>
+        <v>1.021738031157505</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02938479011242</v>
+        <v>1.04828737329202</v>
       </c>
       <c r="J13">
-        <v>0.9869276485177718</v>
+        <v>1.025874488180144</v>
       </c>
       <c r="K13">
-        <v>1.000038118417773</v>
+        <v>1.035122641214562</v>
       </c>
       <c r="L13">
-        <v>0.9848485306864361</v>
+        <v>1.027469199676344</v>
       </c>
       <c r="M13">
-        <v>0.9759812813636255</v>
+        <v>1.036417610424941</v>
       </c>
       <c r="N13">
-        <v>0.9928074146566204</v>
+        <v>1.027331347622808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9565686865131086</v>
+        <v>0.9973997532037028</v>
       </c>
       <c r="D14">
-        <v>0.9856546102194808</v>
+        <v>1.021541186969281</v>
       </c>
       <c r="E14">
-        <v>0.9703095521681873</v>
+        <v>1.013817147722799</v>
       </c>
       <c r="F14">
-        <v>0.9616630837141683</v>
+        <v>1.02299283882694</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029865991845614</v>
+        <v>1.048821960798944</v>
       </c>
       <c r="J14">
-        <v>0.9879053544151346</v>
+        <v>1.026916916297014</v>
       </c>
       <c r="K14">
-        <v>1.00086955848448</v>
+        <v>1.036084440855615</v>
       </c>
       <c r="L14">
-        <v>0.9858317188990605</v>
+        <v>1.028499747250746</v>
       </c>
       <c r="M14">
-        <v>0.9773640698980012</v>
+        <v>1.037510209046875</v>
       </c>
       <c r="N14">
-        <v>0.9934826307359642</v>
+        <v>1.028375256107173</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9574082015033469</v>
+        <v>0.9982619698304538</v>
       </c>
       <c r="D15">
-        <v>0.9862665633777875</v>
+        <v>1.022228915682868</v>
       </c>
       <c r="E15">
-        <v>0.9710191831677949</v>
+        <v>1.014549095250739</v>
       </c>
       <c r="F15">
-        <v>0.9626241131730564</v>
+        <v>1.023762074570454</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030160443080375</v>
+        <v>1.049149280606718</v>
       </c>
       <c r="J15">
-        <v>0.9885042673248758</v>
+        <v>1.027555704329007</v>
       </c>
       <c r="K15">
-        <v>1.001378806886608</v>
+        <v>1.036673789930201</v>
       </c>
       <c r="L15">
-        <v>0.9864340416293479</v>
+        <v>1.029131322150114</v>
       </c>
       <c r="M15">
-        <v>0.9782109944372167</v>
+        <v>1.038179848413038</v>
       </c>
       <c r="N15">
-        <v>0.9938962284600125</v>
+        <v>1.029014951291441</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.962223573179087</v>
+        <v>1.003211659328299</v>
       </c>
       <c r="D16">
-        <v>0.9897789163410754</v>
+        <v>1.026179091043038</v>
       </c>
       <c r="E16">
-        <v>0.9750927887001888</v>
+        <v>1.018754277693706</v>
       </c>
       <c r="F16">
-        <v>0.9681347871089037</v>
+        <v>1.028181701841824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031844081595538</v>
+        <v>1.051023840367438</v>
       </c>
       <c r="J16">
-        <v>0.9919386376856202</v>
+        <v>1.031222050584137</v>
       </c>
       <c r="K16">
-        <v>1.004297972330028</v>
+        <v>1.040055892933234</v>
       </c>
       <c r="L16">
-        <v>0.9898887498870304</v>
+        <v>1.032757269033324</v>
       </c>
       <c r="M16">
-        <v>0.9830657899057499</v>
+        <v>1.04202487033705</v>
       </c>
       <c r="N16">
-        <v>0.9962676342450346</v>
+        <v>1.032686504178789</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9651840799027832</v>
+        <v>1.006258164038381</v>
       </c>
       <c r="D17">
-        <v>0.9919401430416138</v>
+        <v>1.028612167024088</v>
       </c>
       <c r="E17">
-        <v>0.9775999905943643</v>
+        <v>1.021345339275021</v>
       </c>
       <c r="F17">
-        <v>0.9715214475646226</v>
+        <v>1.030905085836046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032874467184827</v>
+        <v>1.052173627220654</v>
       </c>
       <c r="J17">
-        <v>0.9940492079342557</v>
+        <v>1.033477956456685</v>
       </c>
       <c r="K17">
-        <v>1.006090982144978</v>
+        <v>1.042136454425616</v>
       </c>
       <c r="L17">
-        <v>0.9920125130754486</v>
+        <v>1.03498917963363</v>
       </c>
       <c r="M17">
-        <v>0.9860479401053902</v>
+        <v>1.04439209961813</v>
       </c>
       <c r="N17">
-        <v>0.9977246837237778</v>
+        <v>1.034945613696432</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.966890178730123</v>
+        <v>1.008014987320967</v>
       </c>
       <c r="D18">
-        <v>0.9931862246464952</v>
+        <v>1.030015832439112</v>
       </c>
       <c r="E18">
-        <v>0.9790458028735799</v>
+        <v>1.022840485272468</v>
       </c>
       <c r="F18">
-        <v>0.9734727182798295</v>
+        <v>1.032476655748868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033466536952731</v>
+        <v>1.052835207295615</v>
       </c>
       <c r="J18">
-        <v>0.9952651505764426</v>
+        <v>1.034778580647014</v>
       </c>
       <c r="K18">
-        <v>1.007123618466833</v>
+        <v>1.043335814869611</v>
       </c>
       <c r="L18">
-        <v>0.9932363088952945</v>
+        <v>1.036276274470227</v>
       </c>
       <c r="M18">
-        <v>0.9877656159154059</v>
+        <v>1.045757396573954</v>
       </c>
       <c r="N18">
-        <v>0.9985640118046567</v>
+        <v>1.036248084922294</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9674684843698979</v>
+        <v>1.008610678572607</v>
       </c>
       <c r="D19">
-        <v>0.9936086970540174</v>
+        <v>1.030491872604259</v>
       </c>
       <c r="E19">
-        <v>0.9795360379992034</v>
+        <v>1.023347608109401</v>
       </c>
       <c r="F19">
-        <v>0.9741340633928605</v>
+        <v>1.033009711659235</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03366693152669</v>
+        <v>1.053059279915343</v>
       </c>
       <c r="J19">
-        <v>0.9956772491190168</v>
+        <v>1.035219535873987</v>
       </c>
       <c r="K19">
-        <v>1.007473530986253</v>
+        <v>1.043742408589942</v>
       </c>
       <c r="L19">
-        <v>0.9936511120469254</v>
+        <v>1.036712694031288</v>
       </c>
       <c r="M19">
-        <v>0.9883476971172317</v>
+        <v>1.046220360477886</v>
       </c>
       <c r="N19">
-        <v>0.998848451976625</v>
+        <v>1.036689666356268</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9648686082840778</v>
+        <v>1.00593340601086</v>
       </c>
       <c r="D20">
-        <v>0.9917097794199667</v>
+        <v>1.028352738563193</v>
       </c>
       <c r="E20">
-        <v>0.9773327239415069</v>
+        <v>1.021069030633059</v>
       </c>
       <c r="F20">
-        <v>0.9711606093953049</v>
+        <v>1.030614659320754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032764848126137</v>
+        <v>1.052051211345967</v>
       </c>
       <c r="J20">
-        <v>0.9938243412525568</v>
+        <v>1.033237505428465</v>
       </c>
       <c r="K20">
-        <v>1.005899985749785</v>
+        <v>1.041914710398377</v>
       </c>
       <c r="L20">
-        <v>0.9917862145986353</v>
+        <v>1.034751254399297</v>
       </c>
       <c r="M20">
-        <v>0.9857302560627103</v>
+        <v>1.044139731825638</v>
       </c>
       <c r="N20">
-        <v>0.997569456242265</v>
+        <v>1.034704821200172</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561661588763513</v>
+        <v>0.9969864168360654</v>
       </c>
       <c r="D21">
-        <v>0.9853612357275792</v>
+        <v>1.021211538587227</v>
       </c>
       <c r="E21">
-        <v>0.9699693602438565</v>
+        <v>1.013466321988903</v>
       </c>
       <c r="F21">
-        <v>0.9612022600070187</v>
+        <v>1.022624144554529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029724715545159</v>
+        <v>1.048664968701358</v>
       </c>
       <c r="J21">
-        <v>0.9876181742156154</v>
+        <v>1.026610677310859</v>
       </c>
       <c r="K21">
-        <v>1.000625354557588</v>
+        <v>1.035801894843561</v>
       </c>
       <c r="L21">
-        <v>0.9855429176384197</v>
+        <v>1.028196984409291</v>
       </c>
       <c r="M21">
-        <v>0.9769579329326883</v>
+        <v>1.037189208745529</v>
       </c>
       <c r="N21">
-        <v>0.993284304408297</v>
+        <v>1.028068582226531</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9504872374781825</v>
+        <v>0.9911603370709965</v>
       </c>
       <c r="D22">
-        <v>0.981225303841883</v>
+        <v>1.016567932322221</v>
       </c>
       <c r="E22">
-        <v>0.965173985832493</v>
+        <v>1.008525586497977</v>
       </c>
       <c r="F22">
-        <v>0.9546984941020799</v>
+        <v>1.017432022896555</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027725346277476</v>
+        <v>1.04644691700102</v>
       </c>
       <c r="J22">
-        <v>0.9835656318885981</v>
+        <v>1.022293475273587</v>
       </c>
       <c r="K22">
-        <v>0.9971780973244266</v>
+        <v>1.03181816848643</v>
       </c>
       <c r="L22">
-        <v>0.9814684294258934</v>
+        <v>1.023930020935816</v>
       </c>
       <c r="M22">
-        <v>0.9712241645247648</v>
+        <v>1.032665881167698</v>
       </c>
       <c r="N22">
-        <v>0.9904852915608606</v>
+        <v>1.023745249267176</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9535184781981579</v>
+        <v>0.9942688797857908</v>
       </c>
       <c r="D23">
-        <v>0.9834322259465799</v>
+        <v>1.019044884067587</v>
       </c>
       <c r="E23">
-        <v>0.9677326609974797</v>
+        <v>1.011160760034858</v>
       </c>
       <c r="F23">
-        <v>0.9581705825362831</v>
+        <v>1.020201215327951</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028793969885635</v>
+        <v>1.047631560070976</v>
       </c>
       <c r="J23">
-        <v>0.9857289708075375</v>
+        <v>1.024597094449114</v>
       </c>
       <c r="K23">
-        <v>0.9990185867076276</v>
+        <v>1.033943968443537</v>
       </c>
       <c r="L23">
-        <v>0.9836432710153098</v>
+        <v>1.026206548231893</v>
       </c>
       <c r="M23">
-        <v>0.9742855949388269</v>
+        <v>1.035079031634008</v>
       </c>
       <c r="N23">
-        <v>0.9919795422205172</v>
+        <v>1.02605213984616</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9650112201256497</v>
+        <v>1.006080212255771</v>
       </c>
       <c r="D24">
-        <v>0.9918139155705914</v>
+        <v>1.028470010890932</v>
       </c>
       <c r="E24">
-        <v>0.9774535413541707</v>
+        <v>1.021193932447997</v>
       </c>
       <c r="F24">
-        <v>0.9713237308758524</v>
+        <v>1.030745942728174</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032814407799321</v>
+        <v>1.052106553766259</v>
       </c>
       <c r="J24">
-        <v>0.9939259953933186</v>
+        <v>1.033346201750019</v>
       </c>
       <c r="K24">
-        <v>1.005986329452585</v>
+        <v>1.042014950717521</v>
       </c>
       <c r="L24">
-        <v>0.9918885152176232</v>
+        <v>1.034858807985525</v>
       </c>
       <c r="M24">
-        <v>0.9858738708244362</v>
+        <v>1.044253813621716</v>
       </c>
       <c r="N24">
-        <v>0.99763962934144</v>
+        <v>1.03481367188297</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9775429130977156</v>
+        <v>1.019003327896979</v>
       </c>
       <c r="D25">
-        <v>1.000975593791765</v>
+        <v>1.038804343314982</v>
       </c>
       <c r="E25">
-        <v>0.9880890271185321</v>
+        <v>1.032207942869699</v>
       </c>
       <c r="F25">
-        <v>0.9856505687745042</v>
+        <v>1.042324146882836</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037132061431771</v>
+        <v>1.056946445064581</v>
       </c>
       <c r="J25">
-        <v>1.002850425894412</v>
+        <v>1.042907652831348</v>
       </c>
       <c r="K25">
-        <v>1.013558783777989</v>
+        <v>1.050828721404947</v>
       </c>
       <c r="L25">
-        <v>1.000875103247624</v>
+        <v>1.044326030778243</v>
       </c>
       <c r="M25">
-        <v>0.9984758018676365</v>
+        <v>1.054299134619456</v>
       </c>
       <c r="N25">
-        <v>1.003797819201618</v>
+        <v>1.044388701321549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028764957414813</v>
+        <v>1.010658990462427</v>
       </c>
       <c r="D2">
-        <v>1.046623319015349</v>
+        <v>1.027333594163272</v>
       </c>
       <c r="E2">
-        <v>1.040552260738431</v>
-      </c>
-      <c r="F2">
-        <v>1.05109801535785</v>
+        <v>1.015645495869122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060554575425027</v>
+        <v>1.049569743115492</v>
       </c>
       <c r="J2">
-        <v>1.050118080495416</v>
+        <v>1.032525500666164</v>
       </c>
       <c r="K2">
-        <v>1.057469194433741</v>
+        <v>1.038424822663516</v>
       </c>
       <c r="L2">
-        <v>1.051474132149771</v>
-      </c>
-      <c r="M2">
-        <v>1.061888576944733</v>
+        <v>1.026891083657953</v>
       </c>
       <c r="N2">
-        <v>1.051609368619947</v>
+        <v>1.014657837105227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035572604387058</v>
+        <v>1.015241099460538</v>
       </c>
       <c r="D3">
-        <v>1.052081535045148</v>
+        <v>1.030806649969354</v>
       </c>
       <c r="E3">
-        <v>1.046383953646055</v>
-      </c>
-      <c r="F3">
-        <v>1.057231141782157</v>
+        <v>1.019313688170472</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063042014958065</v>
+        <v>1.051197509255615</v>
       </c>
       <c r="J3">
-        <v>1.055138358889228</v>
+        <v>1.035324727183292</v>
       </c>
       <c r="K3">
-        <v>1.062088723230034</v>
+        <v>1.041059962305823</v>
       </c>
       <c r="L3">
-        <v>1.056455844842958</v>
-      </c>
-      <c r="M3">
-        <v>1.067180588310682</v>
+        <v>1.02970526976142</v>
       </c>
       <c r="N3">
-        <v>1.056636776384912</v>
+        <v>1.015592513302473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039858530488824</v>
+        <v>1.018141993071426</v>
       </c>
       <c r="D4">
-        <v>1.055519764460639</v>
+        <v>1.033006971011696</v>
       </c>
       <c r="E4">
-        <v>1.050060671156485</v>
-      </c>
-      <c r="F4">
-        <v>1.061098475726544</v>
+        <v>1.021641733594854</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064594327573474</v>
+        <v>1.052216773527413</v>
       </c>
       <c r="J4">
-        <v>1.058294826776259</v>
+        <v>1.03709274051264</v>
       </c>
       <c r="K4">
-        <v>1.064991293177574</v>
+        <v>1.042722706036396</v>
       </c>
       <c r="L4">
-        <v>1.059590238926843</v>
-      </c>
-      <c r="M4">
-        <v>1.070511447386659</v>
+        <v>1.031485794328688</v>
       </c>
       <c r="N4">
-        <v>1.059797726818394</v>
+        <v>1.016182802392992</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041633262800862</v>
+        <v>1.019346738980156</v>
       </c>
       <c r="D5">
-        <v>1.056943844978558</v>
+        <v>1.033921091464835</v>
       </c>
       <c r="E5">
-        <v>1.051584321241409</v>
-      </c>
-      <c r="F5">
-        <v>1.062701255736455</v>
+        <v>1.022609910866922</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065233767922162</v>
+        <v>1.052637331195094</v>
       </c>
       <c r="J5">
-        <v>1.059600812750553</v>
+        <v>1.037825967098577</v>
       </c>
       <c r="K5">
-        <v>1.066191749287012</v>
+        <v>1.043411873775243</v>
       </c>
       <c r="L5">
-        <v>1.060887605968596</v>
-      </c>
-      <c r="M5">
-        <v>1.071890426130967</v>
+        <v>1.032224945868564</v>
       </c>
       <c r="N5">
-        <v>1.061105567442571</v>
+        <v>1.016427588749923</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041929700497982</v>
+        <v>1.019548169046109</v>
       </c>
       <c r="D6">
-        <v>1.057181731648033</v>
+        <v>1.034073947362954</v>
       </c>
       <c r="E6">
-        <v>1.051838887500433</v>
-      </c>
-      <c r="F6">
-        <v>1.062969050854111</v>
+        <v>1.02277186469423</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06534037673919</v>
+        <v>1.052707484655317</v>
       </c>
       <c r="J6">
-        <v>1.059818891022212</v>
+        <v>1.037948498769297</v>
       </c>
       <c r="K6">
-        <v>1.066392177100408</v>
+        <v>1.043527018723075</v>
       </c>
       <c r="L6">
-        <v>1.06110427504801</v>
-      </c>
-      <c r="M6">
-        <v>1.072120742017169</v>
+        <v>1.03234851102338</v>
       </c>
       <c r="N6">
-        <v>1.061323955410389</v>
+        <v>1.016468494644593</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039882349098408</v>
+        <v>1.018158148362824</v>
       </c>
       <c r="D7">
-        <v>1.055538875647264</v>
+        <v>1.033019227887842</v>
       </c>
       <c r="E7">
-        <v>1.050081115422747</v>
-      </c>
-      <c r="F7">
-        <v>1.061119981209977</v>
+        <v>1.021654711344405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064602922788429</v>
+        <v>1.052222423983569</v>
       </c>
       <c r="J7">
-        <v>1.058312358607597</v>
+        <v>1.037102576993046</v>
       </c>
       <c r="K7">
-        <v>1.065007410274306</v>
+        <v>1.042731953054312</v>
       </c>
       <c r="L7">
-        <v>1.059607653030937</v>
-      </c>
-      <c r="M7">
-        <v>1.070529955783782</v>
+        <v>1.031495707380834</v>
       </c>
       <c r="N7">
-        <v>1.059815283546943</v>
+        <v>1.016186086354915</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031091188522778</v>
+        <v>1.01222112975666</v>
       </c>
       <c r="D8">
-        <v>1.048487990865452</v>
+        <v>1.02851727458434</v>
       </c>
       <c r="E8">
-        <v>1.042543852089857</v>
-      </c>
-      <c r="F8">
-        <v>1.053192429879082</v>
+        <v>1.016894829319002</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061407409774364</v>
+        <v>1.050127020506587</v>
       </c>
       <c r="J8">
-        <v>1.051834397782638</v>
+        <v>1.033480666421126</v>
       </c>
       <c r="K8">
-        <v>1.05904890087431</v>
+        <v>1.039324334419226</v>
       </c>
       <c r="L8">
-        <v>1.053176801363515</v>
-      </c>
-      <c r="M8">
-        <v>1.063697039700558</v>
+        <v>1.027850710956709</v>
       </c>
       <c r="N8">
-        <v>1.053328123274582</v>
+        <v>1.014976782767273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014617405668736</v>
+        <v>1.001243083346423</v>
       </c>
       <c r="D9">
-        <v>1.035294673424552</v>
+        <v>1.020207689961286</v>
       </c>
       <c r="E9">
-        <v>1.028465729390173</v>
-      </c>
-      <c r="F9">
-        <v>1.038389903461435</v>
+        <v>1.008141326537235</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055311272246415</v>
+        <v>1.046164588999382</v>
       </c>
       <c r="J9">
-        <v>1.039664338875279</v>
+        <v>1.026752021373214</v>
       </c>
       <c r="K9">
-        <v>1.047839944977567</v>
+        <v>1.032981203752301</v>
       </c>
       <c r="L9">
-        <v>1.041113255532965</v>
-      </c>
-      <c r="M9">
-        <v>1.050889390591911</v>
+        <v>1.021103683059596</v>
       </c>
       <c r="N9">
-        <v>1.041140781487648</v>
+        <v>1.012729834708527</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002864587378432</v>
+        <v>0.9935387098045273</v>
       </c>
       <c r="D10">
-        <v>1.025901987527414</v>
+        <v>1.014389790992959</v>
       </c>
       <c r="E10">
-        <v>1.018459226723111</v>
-      </c>
-      <c r="F10">
-        <v>1.027871592338803</v>
+        <v>1.00203374725913</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05089265290366</v>
+        <v>1.043327054025441</v>
       </c>
       <c r="J10">
-        <v>1.030965010455432</v>
+        <v>1.022011048990578</v>
       </c>
       <c r="K10">
-        <v>1.039818809036076</v>
+        <v>1.028504004592679</v>
       </c>
       <c r="L10">
-        <v>1.032503005051744</v>
-      </c>
-      <c r="M10">
-        <v>1.041755213528585</v>
+        <v>1.016366378603675</v>
       </c>
       <c r="N10">
-        <v>1.032429099023618</v>
+        <v>1.011146589605246</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.997564608489194</v>
+        <v>0.990101759518608</v>
       </c>
       <c r="D11">
-        <v>1.021672671448527</v>
+        <v>1.01179853314884</v>
       </c>
       <c r="E11">
-        <v>1.013957082302268</v>
-      </c>
-      <c r="F11">
-        <v>1.023139901364854</v>
+        <v>0.9993183377879634</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048884561405344</v>
+        <v>1.042048410829835</v>
       </c>
       <c r="J11">
-        <v>1.027039054737708</v>
+        <v>1.019892194187458</v>
       </c>
       <c r="K11">
-        <v>1.036197128236163</v>
+        <v>1.026501324461004</v>
       </c>
       <c r="L11">
-        <v>1.028620502559851</v>
-      </c>
-      <c r="M11">
-        <v>1.0376382400348</v>
+        <v>1.01425312071921</v>
       </c>
       <c r="N11">
-        <v>1.028497567998461</v>
+        <v>1.010439027035812</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9955615381118945</v>
+        <v>0.9888090942145757</v>
       </c>
       <c r="D12">
-        <v>1.020075357806193</v>
+        <v>1.010824637924896</v>
       </c>
       <c r="E12">
-        <v>1.012257238352012</v>
-      </c>
-      <c r="F12">
-        <v>1.021353497917791</v>
+        <v>0.998298501252461</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048123390330082</v>
+        <v>1.041565635349213</v>
       </c>
       <c r="J12">
-        <v>1.025554936753704</v>
+        <v>1.01909474250751</v>
       </c>
       <c r="K12">
-        <v>1.034827793954494</v>
+        <v>1.02574735235148</v>
       </c>
       <c r="L12">
-        <v>1.027153317239924</v>
-      </c>
-      <c r="M12">
-        <v>1.036082722758018</v>
+        <v>1.013458372054766</v>
       </c>
       <c r="N12">
-        <v>1.02701134239669</v>
+        <v>1.010172736689855</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9959928085512691</v>
+        <v>0.9890871153206198</v>
       </c>
       <c r="D13">
-        <v>1.020419214081703</v>
+        <v>1.011034066445926</v>
       </c>
       <c r="E13">
-        <v>1.012623143849588</v>
-      </c>
-      <c r="F13">
-        <v>1.021738031157505</v>
+        <v>0.998517776770804</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04828737329202</v>
+        <v>1.041669552116162</v>
       </c>
       <c r="J13">
-        <v>1.025874488180144</v>
+        <v>1.019266278341974</v>
       </c>
       <c r="K13">
-        <v>1.035122641214562</v>
+        <v>1.025909546312818</v>
       </c>
       <c r="L13">
-        <v>1.027469199676344</v>
-      </c>
-      <c r="M13">
-        <v>1.036417610424941</v>
+        <v>1.013629299471797</v>
       </c>
       <c r="N13">
-        <v>1.027331347622808</v>
+        <v>1.010230016664566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9973997532037028</v>
+        <v>0.9899952396411049</v>
       </c>
       <c r="D14">
-        <v>1.021541186969281</v>
+        <v>1.011718266325084</v>
       </c>
       <c r="E14">
-        <v>1.013817147722799</v>
-      </c>
-      <c r="F14">
-        <v>1.02299283882694</v>
+        <v>0.9992342699998895</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048821960798944</v>
+        <v>1.042008666146921</v>
       </c>
       <c r="J14">
-        <v>1.026916916297014</v>
+        <v>1.019826492068484</v>
       </c>
       <c r="K14">
-        <v>1.036084440855615</v>
+        <v>1.026439209504986</v>
       </c>
       <c r="L14">
-        <v>1.028499747250746</v>
-      </c>
-      <c r="M14">
-        <v>1.037510209046875</v>
+        <v>1.014187629168684</v>
       </c>
       <c r="N14">
-        <v>1.028375256107173</v>
+        <v>1.010417087171335</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9982619698304538</v>
+        <v>0.9905526139295174</v>
       </c>
       <c r="D15">
-        <v>1.022228915682868</v>
+        <v>1.012138298207416</v>
       </c>
       <c r="E15">
-        <v>1.014549095250739</v>
-      </c>
-      <c r="F15">
-        <v>1.023762074570454</v>
+        <v>0.9996742213822906</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049149280606718</v>
+        <v>1.042216557828138</v>
       </c>
       <c r="J15">
-        <v>1.027555704329007</v>
+        <v>1.02017026257061</v>
       </c>
       <c r="K15">
-        <v>1.036673789930201</v>
+        <v>1.026764201185745</v>
       </c>
       <c r="L15">
-        <v>1.029131322150114</v>
-      </c>
-      <c r="M15">
-        <v>1.038179848413038</v>
+        <v>1.014530322237672</v>
       </c>
       <c r="N15">
-        <v>1.029014951291441</v>
+        <v>1.010531882560555</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003211659328299</v>
+        <v>0.9937646101904846</v>
       </c>
       <c r="D16">
-        <v>1.026179091043038</v>
+        <v>1.014560199002731</v>
       </c>
       <c r="E16">
-        <v>1.018754277693706</v>
-      </c>
-      <c r="F16">
-        <v>1.028181701841824</v>
+        <v>1.002212420263005</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051023840367438</v>
+        <v>1.043410833494734</v>
       </c>
       <c r="J16">
-        <v>1.031222050584137</v>
+        <v>1.022150238243957</v>
       </c>
       <c r="K16">
-        <v>1.040055892933234</v>
+        <v>1.028635527733591</v>
       </c>
       <c r="L16">
-        <v>1.032757269033324</v>
-      </c>
-      <c r="M16">
-        <v>1.04202487033705</v>
+        <v>1.01650528268575</v>
       </c>
       <c r="N16">
-        <v>1.032686504178789</v>
+        <v>1.011193070828353</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006258164038381</v>
+        <v>0.9957518016910351</v>
       </c>
       <c r="D17">
-        <v>1.028612167024088</v>
+        <v>1.016059716001583</v>
       </c>
       <c r="E17">
-        <v>1.021345339275021</v>
-      </c>
-      <c r="F17">
-        <v>1.030905085836046</v>
+        <v>1.003785218514015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052173627220654</v>
+        <v>1.044146371585891</v>
       </c>
       <c r="J17">
-        <v>1.033477956456685</v>
+        <v>1.023374216476158</v>
       </c>
       <c r="K17">
-        <v>1.042136454425616</v>
+        <v>1.029791900117419</v>
       </c>
       <c r="L17">
-        <v>1.03498917963363</v>
-      </c>
-      <c r="M17">
-        <v>1.04439209961813</v>
+        <v>1.017727203057371</v>
       </c>
       <c r="N17">
-        <v>1.034945613696432</v>
+        <v>1.011601812906961</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008014987320967</v>
+        <v>0.9969012229406686</v>
       </c>
       <c r="D18">
-        <v>1.030015832439112</v>
+        <v>1.016927445072699</v>
       </c>
       <c r="E18">
-        <v>1.022840485272468</v>
-      </c>
-      <c r="F18">
-        <v>1.032476655748868</v>
+        <v>1.004695816287477</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052835207295615</v>
+        <v>1.044570599963892</v>
       </c>
       <c r="J18">
-        <v>1.034778580647014</v>
+        <v>1.024081811668129</v>
       </c>
       <c r="K18">
-        <v>1.043335814869611</v>
+        <v>1.030460248644648</v>
       </c>
       <c r="L18">
-        <v>1.036276274470227</v>
-      </c>
-      <c r="M18">
-        <v>1.045757396573954</v>
+        <v>1.018433983143491</v>
       </c>
       <c r="N18">
-        <v>1.036248084922294</v>
+        <v>1.011838113567084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008610678572607</v>
+        <v>0.9972915303628027</v>
       </c>
       <c r="D19">
-        <v>1.030491872604259</v>
+        <v>1.017222161891253</v>
       </c>
       <c r="E19">
-        <v>1.023347608109401</v>
-      </c>
-      <c r="F19">
-        <v>1.033009711659235</v>
+        <v>1.005005171966681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053059279915343</v>
+        <v>1.044714446382156</v>
       </c>
       <c r="J19">
-        <v>1.035219535873987</v>
+        <v>1.024322024203222</v>
       </c>
       <c r="K19">
-        <v>1.043742408589942</v>
+        <v>1.030687109791191</v>
       </c>
       <c r="L19">
-        <v>1.036712694031288</v>
-      </c>
-      <c r="M19">
-        <v>1.046220360477886</v>
+        <v>1.018673982454663</v>
       </c>
       <c r="N19">
-        <v>1.036689666356268</v>
+        <v>1.011918332589507</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00593340601086</v>
+        <v>0.9955396015452377</v>
       </c>
       <c r="D20">
-        <v>1.028352738563193</v>
+        <v>1.015899551062685</v>
       </c>
       <c r="E20">
-        <v>1.021069030633059</v>
-      </c>
-      <c r="F20">
-        <v>1.030614659320754</v>
+        <v>1.003617178391684</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052051211345967</v>
+        <v>1.044067953904179</v>
       </c>
       <c r="J20">
-        <v>1.033237505428465</v>
+        <v>1.023243553508487</v>
       </c>
       <c r="K20">
-        <v>1.041914710398377</v>
+        <v>1.029668471079125</v>
       </c>
       <c r="L20">
-        <v>1.034751254399297</v>
-      </c>
-      <c r="M20">
-        <v>1.044139731825638</v>
+        <v>1.017596720882966</v>
       </c>
       <c r="N20">
-        <v>1.034704821200172</v>
+        <v>1.011558178317098</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9969864168360654</v>
+        <v>0.9897282694454231</v>
       </c>
       <c r="D21">
-        <v>1.021211538587227</v>
+        <v>1.011517105533606</v>
       </c>
       <c r="E21">
-        <v>1.013466321988903</v>
-      </c>
-      <c r="F21">
-        <v>1.022624144554529</v>
+        <v>0.9990235949692579</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048664968701358</v>
+        <v>1.041909024387125</v>
       </c>
       <c r="J21">
-        <v>1.026610677310859</v>
+        <v>1.019661814796938</v>
       </c>
       <c r="K21">
-        <v>1.035801894843561</v>
+        <v>1.026283519297926</v>
       </c>
       <c r="L21">
-        <v>1.028196984409291</v>
-      </c>
-      <c r="M21">
-        <v>1.037189208745529</v>
+        <v>1.014023489284857</v>
       </c>
       <c r="N21">
-        <v>1.028068582226531</v>
+        <v>1.010362096737323</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9911603370709965</v>
+        <v>0.9859812370199891</v>
       </c>
       <c r="D22">
-        <v>1.016567932322221</v>
+        <v>1.008695501527041</v>
       </c>
       <c r="E22">
-        <v>1.008525586497977</v>
-      </c>
-      <c r="F22">
-        <v>1.017432022896555</v>
+        <v>0.9960702375969207</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04644691700102</v>
+        <v>1.040506137611101</v>
       </c>
       <c r="J22">
-        <v>1.022293475273587</v>
+        <v>1.017349301760428</v>
       </c>
       <c r="K22">
-        <v>1.03181816848643</v>
+        <v>1.024096644811189</v>
       </c>
       <c r="L22">
-        <v>1.023930020935816</v>
-      </c>
-      <c r="M22">
-        <v>1.032665881167698</v>
+        <v>1.011719947900044</v>
       </c>
       <c r="N22">
-        <v>1.023745249267176</v>
+        <v>1.009589905768708</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9942688797857908</v>
+        <v>0.9879767531906124</v>
       </c>
       <c r="D23">
-        <v>1.019044884067587</v>
+        <v>1.010197758266156</v>
       </c>
       <c r="E23">
-        <v>1.011160760034858</v>
-      </c>
-      <c r="F23">
-        <v>1.020201215327951</v>
+        <v>0.997642251235007</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047631560070976</v>
+        <v>1.041254259672941</v>
       </c>
       <c r="J23">
-        <v>1.024597094449114</v>
+        <v>1.0185811236205</v>
       </c>
       <c r="K23">
-        <v>1.033943968443537</v>
+        <v>1.025261670545657</v>
       </c>
       <c r="L23">
-        <v>1.026206548231893</v>
-      </c>
-      <c r="M23">
-        <v>1.035079031634008</v>
+        <v>1.012946662523227</v>
       </c>
       <c r="N23">
-        <v>1.02605213984616</v>
+        <v>1.01000122829891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006080212255771</v>
+        <v>0.9956355154888152</v>
       </c>
       <c r="D24">
-        <v>1.028470010890932</v>
+        <v>1.015971944029499</v>
       </c>
       <c r="E24">
-        <v>1.021193932447997</v>
-      </c>
-      <c r="F24">
-        <v>1.030745942728174</v>
+        <v>1.003693129427358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052106553766259</v>
+        <v>1.044103402284376</v>
       </c>
       <c r="J24">
-        <v>1.033346201750019</v>
+        <v>1.023302614006087</v>
       </c>
       <c r="K24">
-        <v>1.042014950717521</v>
+        <v>1.02972426230092</v>
       </c>
       <c r="L24">
-        <v>1.034858807985525</v>
-      </c>
-      <c r="M24">
-        <v>1.044253813621716</v>
+        <v>1.017655698499124</v>
       </c>
       <c r="N24">
-        <v>1.03481367188297</v>
+        <v>1.011577901423799</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019003327896979</v>
+        <v>1.004146160536938</v>
       </c>
       <c r="D25">
-        <v>1.038804343314982</v>
+        <v>1.022403014161917</v>
       </c>
       <c r="E25">
-        <v>1.032207942869699</v>
-      </c>
-      <c r="F25">
-        <v>1.042324146882836</v>
+        <v>1.010450244705419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056946445064581</v>
+        <v>1.047222392724571</v>
       </c>
       <c r="J25">
-        <v>1.042907652831348</v>
+        <v>1.028534790992546</v>
       </c>
       <c r="K25">
-        <v>1.050828721404947</v>
+        <v>1.034663228938145</v>
       </c>
       <c r="L25">
-        <v>1.044326030778243</v>
-      </c>
-      <c r="M25">
-        <v>1.054299134619456</v>
+        <v>1.022888471531948</v>
       </c>
       <c r="N25">
-        <v>1.044388701321549</v>
+        <v>1.013325191399416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010658990462427</v>
+        <v>1.032690091378365</v>
       </c>
       <c r="D2">
-        <v>1.027333594163272</v>
+        <v>1.037131897358414</v>
       </c>
       <c r="E2">
-        <v>1.015645495869122</v>
+        <v>1.032103089698571</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049569743115492</v>
+        <v>1.037664730688466</v>
       </c>
       <c r="J2">
-        <v>1.032525500666164</v>
+        <v>1.03781892621172</v>
       </c>
       <c r="K2">
-        <v>1.038424822663516</v>
+        <v>1.039923656061474</v>
       </c>
       <c r="L2">
-        <v>1.026891083657953</v>
+        <v>1.034909287050578</v>
       </c>
       <c r="N2">
-        <v>1.014657837105227</v>
+        <v>1.016579996623338</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015241099460538</v>
+        <v>1.033630736533736</v>
       </c>
       <c r="D3">
-        <v>1.030806649969354</v>
+        <v>1.037855268837407</v>
       </c>
       <c r="E3">
-        <v>1.019313688170472</v>
+        <v>1.032901549108925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051197509255615</v>
+        <v>1.037926604017113</v>
       </c>
       <c r="J3">
-        <v>1.035324727183292</v>
+        <v>1.03840201669346</v>
       </c>
       <c r="K3">
-        <v>1.041059962305823</v>
+        <v>1.04045700096332</v>
       </c>
       <c r="L3">
-        <v>1.02970526976142</v>
+        <v>1.035516476323678</v>
       </c>
       <c r="N3">
-        <v>1.015592513302473</v>
+        <v>1.016773882354107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018141993071426</v>
+        <v>1.034239464704153</v>
       </c>
       <c r="D4">
-        <v>1.033006971011696</v>
+        <v>1.038323270142959</v>
       </c>
       <c r="E4">
-        <v>1.021641733594854</v>
+        <v>1.033418652263601</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052216773527413</v>
+        <v>1.038094684482384</v>
       </c>
       <c r="J4">
-        <v>1.03709274051264</v>
+        <v>1.038778771713204</v>
       </c>
       <c r="K4">
-        <v>1.042722706036396</v>
+        <v>1.040801373692023</v>
       </c>
       <c r="L4">
-        <v>1.031485794328688</v>
+        <v>1.035909162500885</v>
       </c>
       <c r="N4">
-        <v>1.016182802392992</v>
+        <v>1.016899124970719</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019346738980156</v>
+        <v>1.034495389461453</v>
       </c>
       <c r="D5">
-        <v>1.033921091464835</v>
+        <v>1.03852000027562</v>
       </c>
       <c r="E5">
-        <v>1.022609910866922</v>
+        <v>1.033636148109005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052637331195094</v>
+        <v>1.03816501718102</v>
       </c>
       <c r="J5">
-        <v>1.037825967098577</v>
+        <v>1.038937028540304</v>
       </c>
       <c r="K5">
-        <v>1.043411873775243</v>
+        <v>1.040945970620281</v>
       </c>
       <c r="L5">
-        <v>1.032224945868564</v>
+        <v>1.03607419755073</v>
       </c>
       <c r="N5">
-        <v>1.016427588749923</v>
+        <v>1.016951725309861</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019548169046109</v>
+        <v>1.034538361235888</v>
       </c>
       <c r="D6">
-        <v>1.034073947362954</v>
+        <v>1.038553031061469</v>
       </c>
       <c r="E6">
-        <v>1.02277186469423</v>
+        <v>1.033672672780054</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052707484655317</v>
+        <v>1.038176807080767</v>
       </c>
       <c r="J6">
-        <v>1.037948498769297</v>
+        <v>1.038963592851842</v>
       </c>
       <c r="K6">
-        <v>1.043527018723075</v>
+        <v>1.040970238653516</v>
       </c>
       <c r="L6">
-        <v>1.03234851102338</v>
+        <v>1.036101904689855</v>
       </c>
       <c r="N6">
-        <v>1.016468494644593</v>
+        <v>1.016960554099605</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018158148362824</v>
+        <v>1.03424288432365</v>
       </c>
       <c r="D7">
-        <v>1.033019227887842</v>
+        <v>1.0383258989314</v>
       </c>
       <c r="E7">
-        <v>1.021654711344405</v>
+        <v>1.03342155804002</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052222423983569</v>
+        <v>1.038095625562163</v>
       </c>
       <c r="J7">
-        <v>1.037102576993046</v>
+        <v>1.038780886864436</v>
       </c>
       <c r="K7">
-        <v>1.042731953054312</v>
+        <v>1.040803306501327</v>
       </c>
       <c r="L7">
-        <v>1.031495707380834</v>
+        <v>1.035911367905794</v>
       </c>
       <c r="N7">
-        <v>1.016186086354915</v>
+        <v>1.01689982802241</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01222112975666</v>
+        <v>1.033007972275285</v>
       </c>
       <c r="D8">
-        <v>1.02851727458434</v>
+        <v>1.037376377558086</v>
       </c>
       <c r="E8">
-        <v>1.016894829319002</v>
+        <v>1.032372839606065</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050127020506587</v>
+        <v>1.037753515144601</v>
       </c>
       <c r="J8">
-        <v>1.033480666421126</v>
+        <v>1.03801609638793</v>
       </c>
       <c r="K8">
-        <v>1.039324334419226</v>
+        <v>1.040104054542059</v>
       </c>
       <c r="L8">
-        <v>1.027850710956709</v>
+        <v>1.03511453157923</v>
       </c>
       <c r="N8">
-        <v>1.014976782767273</v>
+        <v>1.016645565414665</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001243083346423</v>
+        <v>1.030832454660207</v>
       </c>
       <c r="D9">
-        <v>1.020207689961286</v>
+        <v>1.03570273003741</v>
       </c>
       <c r="E9">
-        <v>1.008141326537235</v>
+        <v>1.030528337218146</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046164588999382</v>
+        <v>1.037140212144237</v>
       </c>
       <c r="J9">
-        <v>1.026752021373214</v>
+        <v>1.03666431317452</v>
       </c>
       <c r="K9">
-        <v>1.032981203752301</v>
+        <v>1.038866277852982</v>
       </c>
       <c r="L9">
-        <v>1.021103683059596</v>
+        <v>1.033708868188932</v>
       </c>
       <c r="N9">
-        <v>1.012729834708527</v>
+        <v>1.016195894328354</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9935387098045273</v>
+        <v>1.0293825287939</v>
       </c>
       <c r="D10">
-        <v>1.014389790992959</v>
+        <v>1.034586721567955</v>
       </c>
       <c r="E10">
-        <v>1.00203374725913</v>
+        <v>1.029301075559519</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043327054025441</v>
+        <v>1.036724343015049</v>
       </c>
       <c r="J10">
-        <v>1.022011048990578</v>
+        <v>1.035760401194268</v>
       </c>
       <c r="K10">
-        <v>1.028504004592679</v>
+        <v>1.038037377230719</v>
       </c>
       <c r="L10">
-        <v>1.016366378603675</v>
+        <v>1.032770780592467</v>
       </c>
       <c r="N10">
-        <v>1.011146589605246</v>
+        <v>1.01589503799665</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.990101759518608</v>
+        <v>1.028754803373323</v>
       </c>
       <c r="D11">
-        <v>1.01179853314884</v>
+        <v>1.034103434714151</v>
       </c>
       <c r="E11">
-        <v>0.9993183377879634</v>
+        <v>1.028770243202326</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042048410829835</v>
+        <v>1.036542613317072</v>
       </c>
       <c r="J11">
-        <v>1.019892194187458</v>
+        <v>1.035368361596305</v>
       </c>
       <c r="K11">
-        <v>1.026501324461004</v>
+        <v>1.037677583421868</v>
       </c>
       <c r="L11">
-        <v>1.01425312071921</v>
+        <v>1.032364357235922</v>
       </c>
       <c r="N11">
-        <v>1.010439027035812</v>
+        <v>1.015764512626725</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9888090942145757</v>
+        <v>1.02852165418596</v>
       </c>
       <c r="D12">
-        <v>1.010824637924896</v>
+        <v>1.033923914430129</v>
       </c>
       <c r="E12">
-        <v>0.998298501252461</v>
+        <v>1.028573156720011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041565635349213</v>
+        <v>1.036474862565895</v>
       </c>
       <c r="J12">
-        <v>1.01909474250751</v>
+        <v>1.035222645287022</v>
       </c>
       <c r="K12">
-        <v>1.02574735235148</v>
+        <v>1.037543809432316</v>
       </c>
       <c r="L12">
-        <v>1.013458372054766</v>
+        <v>1.032213360514051</v>
       </c>
       <c r="N12">
-        <v>1.010172736689855</v>
+        <v>1.015715992037946</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9890871153206198</v>
+        <v>1.028571664744337</v>
       </c>
       <c r="D13">
-        <v>1.011034066445926</v>
+        <v>1.033962422394702</v>
       </c>
       <c r="E13">
-        <v>0.998517776770804</v>
+        <v>1.028615428425791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041669552116162</v>
+        <v>1.036489406557995</v>
       </c>
       <c r="J13">
-        <v>1.019266278341974</v>
+        <v>1.035253906232354</v>
       </c>
       <c r="K13">
-        <v>1.025909546312818</v>
+        <v>1.037572510301737</v>
       </c>
       <c r="L13">
-        <v>1.013629299471797</v>
+        <v>1.032245751302788</v>
       </c>
       <c r="N13">
-        <v>1.010230016664566</v>
+        <v>1.015726401568181</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9899952396411049</v>
+        <v>1.028735530858934</v>
       </c>
       <c r="D14">
-        <v>1.011718266325084</v>
+        <v>1.034088595627769</v>
       </c>
       <c r="E14">
-        <v>0.9992342699998895</v>
+        <v>1.0287539501645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042008666146921</v>
+        <v>1.036537018080241</v>
       </c>
       <c r="J14">
-        <v>1.019826492068484</v>
+        <v>1.03535631858134</v>
       </c>
       <c r="K14">
-        <v>1.026439209504986</v>
+        <v>1.037666528280617</v>
       </c>
       <c r="L14">
-        <v>1.014187629168684</v>
+        <v>1.032351876467901</v>
       </c>
       <c r="N14">
-        <v>1.010417087171335</v>
+        <v>1.015760502666164</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9905526139295174</v>
+        <v>1.028836496317872</v>
       </c>
       <c r="D15">
-        <v>1.012138298207416</v>
+        <v>1.034166334356652</v>
       </c>
       <c r="E15">
-        <v>0.9996742213822906</v>
+        <v>1.028839309713094</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042216557828138</v>
+        <v>1.036566320229577</v>
       </c>
       <c r="J15">
-        <v>1.02017026257061</v>
+        <v>1.035419405598117</v>
       </c>
       <c r="K15">
-        <v>1.026764201185745</v>
+        <v>1.037724438585714</v>
       </c>
       <c r="L15">
-        <v>1.014530322237672</v>
+        <v>1.032417259338381</v>
       </c>
       <c r="N15">
-        <v>1.010531882560555</v>
+        <v>1.015781508497291</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9937646101904846</v>
+        <v>1.029424191068334</v>
       </c>
       <c r="D16">
-        <v>1.014560199002731</v>
+        <v>1.034618794816019</v>
       </c>
       <c r="E16">
-        <v>1.002212420263005</v>
+        <v>1.029336317473464</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043410833494734</v>
+        <v>1.036736368976261</v>
       </c>
       <c r="J16">
-        <v>1.022150238243957</v>
+        <v>1.03578640615807</v>
       </c>
       <c r="K16">
-        <v>1.028635527733591</v>
+        <v>1.038061237208507</v>
       </c>
       <c r="L16">
-        <v>1.01650528268575</v>
+        <v>1.032797748899062</v>
       </c>
       <c r="N16">
-        <v>1.011193070828353</v>
+        <v>1.015903695238884</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9957518016910351</v>
+        <v>1.029792864239515</v>
       </c>
       <c r="D17">
-        <v>1.016059716001583</v>
+        <v>1.034902599322606</v>
       </c>
       <c r="E17">
-        <v>1.003785218514015</v>
+        <v>1.029648233413777</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044146371585891</v>
+        <v>1.036842593150647</v>
       </c>
       <c r="J17">
-        <v>1.023374216476158</v>
+        <v>1.036016445177521</v>
       </c>
       <c r="K17">
-        <v>1.029791900117419</v>
+        <v>1.03827226856891</v>
       </c>
       <c r="L17">
-        <v>1.017727203057371</v>
+        <v>1.033036360245023</v>
       </c>
       <c r="N17">
-        <v>1.011601812906961</v>
+        <v>1.015980272335551</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9969012229406686</v>
+        <v>1.030007914865167</v>
       </c>
       <c r="D18">
-        <v>1.016927445072699</v>
+        <v>1.035068132998219</v>
       </c>
       <c r="E18">
-        <v>1.004695816287477</v>
+        <v>1.02983022459328</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044570599963892</v>
+        <v>1.036904392138256</v>
       </c>
       <c r="J18">
-        <v>1.024081811668129</v>
+        <v>1.036150561268052</v>
       </c>
       <c r="K18">
-        <v>1.030460248644648</v>
+        <v>1.03839527517254</v>
       </c>
       <c r="L18">
-        <v>1.018433983143491</v>
+        <v>1.03317551641728</v>
       </c>
       <c r="N18">
-        <v>1.011838113567084</v>
+        <v>1.016024914069186</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9972915303628027</v>
+        <v>1.03008124321394</v>
       </c>
       <c r="D19">
-        <v>1.017222161891253</v>
+        <v>1.035124574872833</v>
       </c>
       <c r="E19">
-        <v>1.005005171966681</v>
+        <v>1.029892288327205</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044714446382156</v>
+        <v>1.036925436880334</v>
       </c>
       <c r="J19">
-        <v>1.024322024203222</v>
+        <v>1.036196280887136</v>
       </c>
       <c r="K19">
-        <v>1.030687109791191</v>
+        <v>1.038437202901933</v>
       </c>
       <c r="L19">
-        <v>1.018673982454663</v>
+        <v>1.033222961354307</v>
       </c>
       <c r="N19">
-        <v>1.011918332589507</v>
+        <v>1.016040131600558</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9955396015452377</v>
+        <v>1.029753308078651</v>
       </c>
       <c r="D20">
-        <v>1.015899551062685</v>
+        <v>1.034872150261815</v>
       </c>
       <c r="E20">
-        <v>1.003617178391684</v>
+        <v>1.029614761996174</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044067953904179</v>
+        <v>1.03683121282487</v>
       </c>
       <c r="J20">
-        <v>1.023243553508487</v>
+        <v>1.035991770552155</v>
       </c>
       <c r="K20">
-        <v>1.029668471079125</v>
+        <v>1.038249635626995</v>
       </c>
       <c r="L20">
-        <v>1.017596720882966</v>
+        <v>1.033010761753355</v>
       </c>
       <c r="N20">
-        <v>1.011558178317098</v>
+        <v>1.015972058858559</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9897282694454231</v>
+        <v>1.028687275925981</v>
       </c>
       <c r="D21">
-        <v>1.011517105533606</v>
+        <v>1.034051440912551</v>
       </c>
       <c r="E21">
-        <v>0.9990235949692579</v>
+        <v>1.028713156518574</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041909024387125</v>
+        <v>1.036523004522613</v>
       </c>
       <c r="J21">
-        <v>1.019661814796938</v>
+        <v>1.035326163323011</v>
       </c>
       <c r="K21">
-        <v>1.026283519297926</v>
+        <v>1.037638845926431</v>
       </c>
       <c r="L21">
-        <v>1.014023489284857</v>
+        <v>1.032320626155793</v>
       </c>
       <c r="N21">
-        <v>1.010362096737323</v>
+        <v>1.015750461779849</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9859812370199891</v>
+        <v>1.028017111999195</v>
       </c>
       <c r="D22">
-        <v>1.008695501527041</v>
+        <v>1.033535394063822</v>
       </c>
       <c r="E22">
-        <v>0.9960702375969207</v>
+        <v>1.028146792757104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040506137611101</v>
+        <v>1.036327785675091</v>
       </c>
       <c r="J22">
-        <v>1.017349301760428</v>
+        <v>1.03490711837075</v>
       </c>
       <c r="K22">
-        <v>1.024096644811189</v>
+        <v>1.037254063284795</v>
       </c>
       <c r="L22">
-        <v>1.011719947900044</v>
+        <v>1.031886520055708</v>
       </c>
       <c r="N22">
-        <v>1.009589905768708</v>
+        <v>1.015610917187935</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9879767531906124</v>
+        <v>1.028372369562502</v>
       </c>
       <c r="D23">
-        <v>1.010197758266156</v>
+        <v>1.033808963128862</v>
       </c>
       <c r="E23">
-        <v>0.997642251235007</v>
+        <v>1.028446984047422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041254259672941</v>
+        <v>1.036431410838167</v>
       </c>
       <c r="J23">
-        <v>1.0185811236205</v>
+        <v>1.035129314026548</v>
       </c>
       <c r="K23">
-        <v>1.025261670545657</v>
+        <v>1.037458115128962</v>
       </c>
       <c r="L23">
-        <v>1.012946662523227</v>
+        <v>1.032116665683438</v>
       </c>
       <c r="N23">
-        <v>1.01000122829891</v>
+        <v>1.01568491295491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9956355154888152</v>
+        <v>1.029771181774773</v>
       </c>
       <c r="D24">
-        <v>1.015971944029499</v>
+        <v>1.034885908896312</v>
       </c>
       <c r="E24">
-        <v>1.003693129427358</v>
+        <v>1.029629886116436</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044103402284376</v>
+        <v>1.036836355597929</v>
       </c>
       <c r="J24">
-        <v>1.023302614006087</v>
+        <v>1.036002920144173</v>
       </c>
       <c r="K24">
-        <v>1.02972426230092</v>
+        <v>1.038259862740111</v>
       </c>
       <c r="L24">
-        <v>1.017655698499124</v>
+        <v>1.033022328677246</v>
       </c>
       <c r="N24">
-        <v>1.011577901423799</v>
+        <v>1.015975770250651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004146160536938</v>
+        <v>1.031394807586021</v>
       </c>
       <c r="D25">
-        <v>1.022403014161917</v>
+        <v>1.036135456224255</v>
       </c>
       <c r="E25">
-        <v>1.010450244705419</v>
+        <v>1.031004766322295</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047222392724571</v>
+        <v>1.037300001945384</v>
       </c>
       <c r="J25">
-        <v>1.028534790992546</v>
+        <v>1.037014265171065</v>
       </c>
       <c r="K25">
-        <v>1.034663228938145</v>
+        <v>1.039186931637363</v>
       </c>
       <c r="L25">
-        <v>1.022888471531948</v>
+        <v>1.034072442314398</v>
       </c>
       <c r="N25">
-        <v>1.013325191399416</v>
+        <v>1.016312336046204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032690091378365</v>
+        <v>1.010658990462428</v>
       </c>
       <c r="D2">
-        <v>1.037131897358414</v>
+        <v>1.027333594163272</v>
       </c>
       <c r="E2">
-        <v>1.032103089698571</v>
+        <v>1.015645495869122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037664730688466</v>
+        <v>1.049569743115493</v>
       </c>
       <c r="J2">
-        <v>1.03781892621172</v>
+        <v>1.032525500666164</v>
       </c>
       <c r="K2">
-        <v>1.039923656061474</v>
+        <v>1.038424822663516</v>
       </c>
       <c r="L2">
-        <v>1.034909287050578</v>
+        <v>1.026891083657954</v>
       </c>
       <c r="N2">
-        <v>1.016579996623338</v>
+        <v>1.014657837105227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033630736533736</v>
+        <v>1.015241099460539</v>
       </c>
       <c r="D3">
-        <v>1.037855268837407</v>
+        <v>1.030806649969354</v>
       </c>
       <c r="E3">
-        <v>1.032901549108925</v>
+        <v>1.019313688170472</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037926604017113</v>
+        <v>1.051197509255615</v>
       </c>
       <c r="J3">
-        <v>1.03840201669346</v>
+        <v>1.035324727183293</v>
       </c>
       <c r="K3">
-        <v>1.04045700096332</v>
+        <v>1.041059962305823</v>
       </c>
       <c r="L3">
-        <v>1.035516476323678</v>
+        <v>1.029705269761421</v>
       </c>
       <c r="N3">
-        <v>1.016773882354107</v>
+        <v>1.015592513302473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034239464704153</v>
+        <v>1.018141993071427</v>
       </c>
       <c r="D4">
-        <v>1.038323270142959</v>
+        <v>1.033006971011697</v>
       </c>
       <c r="E4">
-        <v>1.033418652263601</v>
+        <v>1.021641733594855</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038094684482384</v>
+        <v>1.052216773527413</v>
       </c>
       <c r="J4">
-        <v>1.038778771713204</v>
+        <v>1.037092740512641</v>
       </c>
       <c r="K4">
-        <v>1.040801373692023</v>
+        <v>1.042722706036397</v>
       </c>
       <c r="L4">
-        <v>1.035909162500885</v>
+        <v>1.031485794328689</v>
       </c>
       <c r="N4">
-        <v>1.016899124970719</v>
+        <v>1.016182802392993</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034495389461453</v>
+        <v>1.019346738980156</v>
       </c>
       <c r="D5">
-        <v>1.03852000027562</v>
+        <v>1.033921091464835</v>
       </c>
       <c r="E5">
-        <v>1.033636148109005</v>
+        <v>1.022609910866922</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03816501718102</v>
+        <v>1.052637331195094</v>
       </c>
       <c r="J5">
-        <v>1.038937028540304</v>
+        <v>1.037825967098577</v>
       </c>
       <c r="K5">
-        <v>1.040945970620281</v>
+        <v>1.043411873775244</v>
       </c>
       <c r="L5">
-        <v>1.03607419755073</v>
+        <v>1.032224945868564</v>
       </c>
       <c r="N5">
-        <v>1.016951725309861</v>
+        <v>1.016427588749923</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034538361235888</v>
+        <v>1.019548169046107</v>
       </c>
       <c r="D6">
-        <v>1.038553031061469</v>
+        <v>1.034073947362953</v>
       </c>
       <c r="E6">
-        <v>1.033672672780054</v>
+        <v>1.022771864694229</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038176807080767</v>
+        <v>1.052707484655315</v>
       </c>
       <c r="J6">
-        <v>1.038963592851842</v>
+        <v>1.037948498769295</v>
       </c>
       <c r="K6">
-        <v>1.040970238653516</v>
+        <v>1.043527018723074</v>
       </c>
       <c r="L6">
-        <v>1.036101904689855</v>
+        <v>1.032348511023379</v>
       </c>
       <c r="N6">
-        <v>1.016960554099605</v>
+        <v>1.016468494644593</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03424288432365</v>
+        <v>1.018158148362824</v>
       </c>
       <c r="D7">
-        <v>1.0383258989314</v>
+        <v>1.033019227887842</v>
       </c>
       <c r="E7">
-        <v>1.03342155804002</v>
+        <v>1.021654711344404</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038095625562163</v>
+        <v>1.052222423983569</v>
       </c>
       <c r="J7">
-        <v>1.038780886864436</v>
+        <v>1.037102576993046</v>
       </c>
       <c r="K7">
-        <v>1.040803306501327</v>
+        <v>1.042731953054313</v>
       </c>
       <c r="L7">
-        <v>1.035911367905794</v>
+        <v>1.031495707380834</v>
       </c>
       <c r="N7">
-        <v>1.01689982802241</v>
+        <v>1.016186086354915</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033007972275285</v>
+        <v>1.01222112975666</v>
       </c>
       <c r="D8">
-        <v>1.037376377558086</v>
+        <v>1.02851727458434</v>
       </c>
       <c r="E8">
-        <v>1.032372839606065</v>
+        <v>1.016894829319001</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037753515144601</v>
+        <v>1.050127020506587</v>
       </c>
       <c r="J8">
-        <v>1.03801609638793</v>
+        <v>1.033480666421126</v>
       </c>
       <c r="K8">
-        <v>1.040104054542059</v>
+        <v>1.039324334419226</v>
       </c>
       <c r="L8">
-        <v>1.03511453157923</v>
+        <v>1.027850710956709</v>
       </c>
       <c r="N8">
-        <v>1.016645565414665</v>
+        <v>1.014976782767273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030832454660207</v>
+        <v>1.001243083346423</v>
       </c>
       <c r="D9">
-        <v>1.03570273003741</v>
+        <v>1.020207689961287</v>
       </c>
       <c r="E9">
-        <v>1.030528337218146</v>
+        <v>1.008141326537235</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037140212144237</v>
+        <v>1.046164588999382</v>
       </c>
       <c r="J9">
-        <v>1.03666431317452</v>
+        <v>1.026752021373214</v>
       </c>
       <c r="K9">
-        <v>1.038866277852982</v>
+        <v>1.032981203752302</v>
       </c>
       <c r="L9">
-        <v>1.033708868188932</v>
+        <v>1.021103683059596</v>
       </c>
       <c r="N9">
-        <v>1.016195894328354</v>
+        <v>1.012729834708527</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0293825287939</v>
+        <v>0.9935387098045255</v>
       </c>
       <c r="D10">
-        <v>1.034586721567955</v>
+        <v>1.014389790992958</v>
       </c>
       <c r="E10">
-        <v>1.029301075559519</v>
+        <v>1.002033747259128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036724343015049</v>
+        <v>1.04332705402544</v>
       </c>
       <c r="J10">
-        <v>1.035760401194268</v>
+        <v>1.022011048990577</v>
       </c>
       <c r="K10">
-        <v>1.038037377230719</v>
+        <v>1.028504004592678</v>
       </c>
       <c r="L10">
-        <v>1.032770780592467</v>
+        <v>1.016366378603673</v>
       </c>
       <c r="N10">
-        <v>1.01589503799665</v>
+        <v>1.011146589605246</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028754803373323</v>
+        <v>0.990101759518608</v>
       </c>
       <c r="D11">
-        <v>1.034103434714151</v>
+        <v>1.01179853314884</v>
       </c>
       <c r="E11">
-        <v>1.028770243202326</v>
+        <v>0.9993183377879632</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036542613317072</v>
+        <v>1.042048410829835</v>
       </c>
       <c r="J11">
-        <v>1.035368361596305</v>
+        <v>1.019892194187457</v>
       </c>
       <c r="K11">
-        <v>1.037677583421868</v>
+        <v>1.026501324461004</v>
       </c>
       <c r="L11">
-        <v>1.032364357235922</v>
+        <v>1.014253120719209</v>
       </c>
       <c r="N11">
-        <v>1.015764512626725</v>
+        <v>1.010439027035812</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02852165418596</v>
+        <v>0.9888090942145744</v>
       </c>
       <c r="D12">
-        <v>1.033923914430129</v>
+        <v>1.010824637924895</v>
       </c>
       <c r="E12">
-        <v>1.028573156720011</v>
+        <v>0.9982985012524596</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036474862565895</v>
+        <v>1.041565635349212</v>
       </c>
       <c r="J12">
-        <v>1.035222645287022</v>
+        <v>1.019094742507509</v>
       </c>
       <c r="K12">
-        <v>1.037543809432316</v>
+        <v>1.025747352351479</v>
       </c>
       <c r="L12">
-        <v>1.032213360514051</v>
+        <v>1.013458372054764</v>
       </c>
       <c r="N12">
-        <v>1.015715992037946</v>
+        <v>1.010172736689854</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028571664744337</v>
+        <v>0.98908711532062</v>
       </c>
       <c r="D13">
-        <v>1.033962422394702</v>
+        <v>1.011034066445926</v>
       </c>
       <c r="E13">
-        <v>1.028615428425791</v>
+        <v>0.998517776770804</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036489406557995</v>
+        <v>1.041669552116163</v>
       </c>
       <c r="J13">
-        <v>1.035253906232354</v>
+        <v>1.019266278341975</v>
       </c>
       <c r="K13">
-        <v>1.037572510301737</v>
+        <v>1.025909546312818</v>
       </c>
       <c r="L13">
-        <v>1.032245751302788</v>
+        <v>1.013629299471798</v>
       </c>
       <c r="N13">
-        <v>1.015726401568181</v>
+        <v>1.010230016664566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028735530858934</v>
+        <v>0.989995239641106</v>
       </c>
       <c r="D14">
-        <v>1.034088595627769</v>
+        <v>1.011718266325085</v>
       </c>
       <c r="E14">
-        <v>1.0287539501645</v>
+        <v>0.9992342699998907</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036537018080241</v>
+        <v>1.042008666146922</v>
       </c>
       <c r="J14">
-        <v>1.03535631858134</v>
+        <v>1.019826492068486</v>
       </c>
       <c r="K14">
-        <v>1.037666528280617</v>
+        <v>1.026439209504988</v>
       </c>
       <c r="L14">
-        <v>1.032351876467901</v>
+        <v>1.014187629168686</v>
       </c>
       <c r="N14">
-        <v>1.015760502666164</v>
+        <v>1.010417087171336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028836496317872</v>
+        <v>0.9905526139295177</v>
       </c>
       <c r="D15">
-        <v>1.034166334356652</v>
+        <v>1.012138298207416</v>
       </c>
       <c r="E15">
-        <v>1.028839309713094</v>
+        <v>0.9996742213822902</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036566320229577</v>
+        <v>1.042216557828138</v>
       </c>
       <c r="J15">
-        <v>1.035419405598117</v>
+        <v>1.020170262570611</v>
       </c>
       <c r="K15">
-        <v>1.037724438585714</v>
+        <v>1.026764201185746</v>
       </c>
       <c r="L15">
-        <v>1.032417259338381</v>
+        <v>1.014530322237672</v>
       </c>
       <c r="N15">
-        <v>1.015781508497291</v>
+        <v>1.010531882560555</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029424191068334</v>
+        <v>0.9937646101904853</v>
       </c>
       <c r="D16">
-        <v>1.034618794816019</v>
+        <v>1.014560199002732</v>
       </c>
       <c r="E16">
-        <v>1.029336317473464</v>
+        <v>1.002212420263006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036736368976261</v>
+        <v>1.043410833494735</v>
       </c>
       <c r="J16">
-        <v>1.03578640615807</v>
+        <v>1.022150238243958</v>
       </c>
       <c r="K16">
-        <v>1.038061237208507</v>
+        <v>1.028635527733592</v>
       </c>
       <c r="L16">
-        <v>1.032797748899062</v>
+        <v>1.016505282685751</v>
       </c>
       <c r="N16">
-        <v>1.015903695238884</v>
+        <v>1.011193070828353</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029792864239515</v>
+        <v>0.9957518016910356</v>
       </c>
       <c r="D17">
-        <v>1.034902599322606</v>
+        <v>1.016059716001583</v>
       </c>
       <c r="E17">
-        <v>1.029648233413777</v>
+        <v>1.003785218514015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036842593150647</v>
+        <v>1.044146371585891</v>
       </c>
       <c r="J17">
-        <v>1.036016445177521</v>
+        <v>1.023374216476158</v>
       </c>
       <c r="K17">
-        <v>1.03827226856891</v>
+        <v>1.02979190011742</v>
       </c>
       <c r="L17">
-        <v>1.033036360245023</v>
+        <v>1.017727203057371</v>
       </c>
       <c r="N17">
-        <v>1.015980272335551</v>
+        <v>1.011601812906961</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030007914865167</v>
+        <v>0.9969012229406686</v>
       </c>
       <c r="D18">
-        <v>1.035068132998219</v>
+        <v>1.016927445072699</v>
       </c>
       <c r="E18">
-        <v>1.02983022459328</v>
+        <v>1.004695816287478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036904392138256</v>
+        <v>1.044570599963892</v>
       </c>
       <c r="J18">
-        <v>1.036150561268052</v>
+        <v>1.024081811668129</v>
       </c>
       <c r="K18">
-        <v>1.03839527517254</v>
+        <v>1.030460248644648</v>
       </c>
       <c r="L18">
-        <v>1.03317551641728</v>
+        <v>1.018433983143491</v>
       </c>
       <c r="N18">
-        <v>1.016024914069186</v>
+        <v>1.011838113567084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03008124321394</v>
+        <v>0.9972915303628028</v>
       </c>
       <c r="D19">
-        <v>1.035124574872833</v>
+        <v>1.017222161891253</v>
       </c>
       <c r="E19">
-        <v>1.029892288327205</v>
+        <v>1.005005171966681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036925436880334</v>
+        <v>1.044714446382156</v>
       </c>
       <c r="J19">
-        <v>1.036196280887136</v>
+        <v>1.024322024203222</v>
       </c>
       <c r="K19">
-        <v>1.038437202901933</v>
+        <v>1.030687109791191</v>
       </c>
       <c r="L19">
-        <v>1.033222961354307</v>
+        <v>1.018673982454663</v>
       </c>
       <c r="N19">
-        <v>1.016040131600558</v>
+        <v>1.011918332589507</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029753308078651</v>
+        <v>0.9955396015452376</v>
       </c>
       <c r="D20">
-        <v>1.034872150261815</v>
+        <v>1.015899551062685</v>
       </c>
       <c r="E20">
-        <v>1.029614761996174</v>
+        <v>1.003617178391683</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03683121282487</v>
+        <v>1.044067953904179</v>
       </c>
       <c r="J20">
-        <v>1.035991770552155</v>
+        <v>1.023243553508486</v>
       </c>
       <c r="K20">
-        <v>1.038249635626995</v>
+        <v>1.029668471079125</v>
       </c>
       <c r="L20">
-        <v>1.033010761753355</v>
+        <v>1.017596720882966</v>
       </c>
       <c r="N20">
-        <v>1.015972058858559</v>
+        <v>1.011558178317098</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028687275925981</v>
+        <v>0.9897282694454242</v>
       </c>
       <c r="D21">
-        <v>1.034051440912551</v>
+        <v>1.011517105533607</v>
       </c>
       <c r="E21">
-        <v>1.028713156518574</v>
+        <v>0.9990235949692586</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036523004522613</v>
+        <v>1.041909024387126</v>
       </c>
       <c r="J21">
-        <v>1.035326163323011</v>
+        <v>1.019661814796939</v>
       </c>
       <c r="K21">
-        <v>1.037638845926431</v>
+        <v>1.026283519297926</v>
       </c>
       <c r="L21">
-        <v>1.032320626155793</v>
+        <v>1.014023489284857</v>
       </c>
       <c r="N21">
-        <v>1.015750461779849</v>
+        <v>1.010362096737323</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028017111999195</v>
+        <v>0.9859812370199904</v>
       </c>
       <c r="D22">
-        <v>1.033535394063822</v>
+        <v>1.008695501527043</v>
       </c>
       <c r="E22">
-        <v>1.028146792757104</v>
+        <v>0.996070237596922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036327785675091</v>
+        <v>1.040506137611102</v>
       </c>
       <c r="J22">
-        <v>1.03490711837075</v>
+        <v>1.017349301760429</v>
       </c>
       <c r="K22">
-        <v>1.037254063284795</v>
+        <v>1.02409664481119</v>
       </c>
       <c r="L22">
-        <v>1.031886520055708</v>
+        <v>1.011719947900046</v>
       </c>
       <c r="N22">
-        <v>1.015610917187935</v>
+        <v>1.009589905768709</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028372369562502</v>
+        <v>0.987976753190612</v>
       </c>
       <c r="D23">
-        <v>1.033808963128862</v>
+        <v>1.010197758266156</v>
       </c>
       <c r="E23">
-        <v>1.028446984047422</v>
+        <v>0.9976422512350068</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036431410838167</v>
+        <v>1.041254259672941</v>
       </c>
       <c r="J23">
-        <v>1.035129314026548</v>
+        <v>1.018581123620499</v>
       </c>
       <c r="K23">
-        <v>1.037458115128962</v>
+        <v>1.025261670545657</v>
       </c>
       <c r="L23">
-        <v>1.032116665683438</v>
+        <v>1.012946662523227</v>
       </c>
       <c r="N23">
-        <v>1.01568491295491</v>
+        <v>1.01000122829891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029771181774773</v>
+        <v>0.9956355154888156</v>
       </c>
       <c r="D24">
-        <v>1.034885908896312</v>
+        <v>1.015971944029499</v>
       </c>
       <c r="E24">
-        <v>1.029629886116436</v>
+        <v>1.003693129427358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036836355597929</v>
+        <v>1.044103402284376</v>
       </c>
       <c r="J24">
-        <v>1.036002920144173</v>
+        <v>1.023302614006087</v>
       </c>
       <c r="K24">
-        <v>1.038259862740111</v>
+        <v>1.02972426230092</v>
       </c>
       <c r="L24">
-        <v>1.033022328677246</v>
+        <v>1.017655698499125</v>
       </c>
       <c r="N24">
-        <v>1.015975770250651</v>
+        <v>1.011577901423799</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031394807586021</v>
+        <v>1.004146160536939</v>
       </c>
       <c r="D25">
-        <v>1.036135456224255</v>
+        <v>1.022403014161918</v>
       </c>
       <c r="E25">
-        <v>1.031004766322295</v>
+        <v>1.01045024470542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037300001945384</v>
+        <v>1.047222392724571</v>
       </c>
       <c r="J25">
-        <v>1.037014265171065</v>
+        <v>1.028534790992547</v>
       </c>
       <c r="K25">
-        <v>1.039186931637363</v>
+        <v>1.034663228938145</v>
       </c>
       <c r="L25">
-        <v>1.034072442314398</v>
+        <v>1.022888471531949</v>
       </c>
       <c r="N25">
-        <v>1.016312336046204</v>
+        <v>1.013325191399416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010658990462428</v>
+        <v>1.016991308562544</v>
       </c>
       <c r="D2">
-        <v>1.027333594163272</v>
+        <v>1.036908555055022</v>
       </c>
       <c r="E2">
-        <v>1.015645495869122</v>
+        <v>1.03110897747646</v>
+      </c>
+      <c r="F2">
+        <v>1.041906967914536</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049569743115493</v>
+        <v>1.054782619555858</v>
       </c>
       <c r="J2">
-        <v>1.032525500666164</v>
+        <v>1.038675423316941</v>
       </c>
       <c r="K2">
-        <v>1.038424822663516</v>
+        <v>1.047876571079923</v>
       </c>
       <c r="L2">
-        <v>1.026891083657954</v>
+        <v>1.042151281792482</v>
+      </c>
+      <c r="M2">
+        <v>1.052811785704029</v>
       </c>
       <c r="N2">
-        <v>1.014657837105227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016742558127913</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050369310013575</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044923145675912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015241099460539</v>
+        <v>1.020202066354558</v>
       </c>
       <c r="D3">
-        <v>1.030806649969354</v>
+        <v>1.03907530768913</v>
       </c>
       <c r="E3">
-        <v>1.019313688170472</v>
+        <v>1.033574363546514</v>
+      </c>
+      <c r="F3">
+        <v>1.044311053012233</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051197509255615</v>
+        <v>1.055580059444207</v>
       </c>
       <c r="J3">
-        <v>1.035324727183293</v>
+        <v>1.040156753435529</v>
       </c>
       <c r="K3">
-        <v>1.041059962305823</v>
+        <v>1.04923148159907</v>
       </c>
       <c r="L3">
-        <v>1.029705269761421</v>
+        <v>1.043794947114763</v>
+      </c>
+      <c r="M3">
+        <v>1.054406700758564</v>
       </c>
       <c r="N3">
-        <v>1.015592513302473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017240030439241</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051631560301418</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045878525400448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018141993071427</v>
+        <v>1.022247217943756</v>
       </c>
       <c r="D4">
-        <v>1.033006971011697</v>
+        <v>1.040459102721976</v>
       </c>
       <c r="E4">
-        <v>1.021641733594855</v>
+        <v>1.035150524731807</v>
+      </c>
+      <c r="F4">
+        <v>1.045849005787821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052216773527413</v>
+        <v>1.056079177354475</v>
       </c>
       <c r="J4">
-        <v>1.037092740512641</v>
+        <v>1.041098464021271</v>
       </c>
       <c r="K4">
-        <v>1.042722706036397</v>
+        <v>1.050092564516059</v>
       </c>
       <c r="L4">
-        <v>1.031485794328689</v>
+        <v>1.044842445209311</v>
+      </c>
+      <c r="M4">
+        <v>1.055423858005102</v>
       </c>
       <c r="N4">
-        <v>1.016182802392993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01755634316929</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052436559448057</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046488261689837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019346738980156</v>
+        <v>1.023101911889212</v>
       </c>
       <c r="D5">
-        <v>1.033921091464835</v>
+        <v>1.041040044814927</v>
       </c>
       <c r="E5">
-        <v>1.022609910866922</v>
+        <v>1.035811020982563</v>
+      </c>
+      <c r="F5">
+        <v>1.046493843147263</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052637331195094</v>
+        <v>1.056286948438843</v>
       </c>
       <c r="J5">
-        <v>1.037825967098577</v>
+        <v>1.041492833422893</v>
       </c>
       <c r="K5">
-        <v>1.043411873775244</v>
+        <v>1.050454321437726</v>
       </c>
       <c r="L5">
-        <v>1.032224945868564</v>
+        <v>1.045281366976456</v>
+      </c>
+      <c r="M5">
+        <v>1.055850370216383</v>
       </c>
       <c r="N5">
-        <v>1.016427588749923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017689090549493</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052774109720172</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046751155398588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019548169046107</v>
+        <v>1.023247999612773</v>
       </c>
       <c r="D6">
-        <v>1.034073947362953</v>
+        <v>1.041141563674837</v>
       </c>
       <c r="E6">
-        <v>1.022771864694229</v>
+        <v>1.035924521135587</v>
+      </c>
+      <c r="F6">
+        <v>1.046604809632641</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052707484655315</v>
+        <v>1.056323956975732</v>
       </c>
       <c r="J6">
-        <v>1.037948498769295</v>
+        <v>1.041561769606092</v>
       </c>
       <c r="K6">
-        <v>1.043527018723074</v>
+        <v>1.050519028035423</v>
       </c>
       <c r="L6">
-        <v>1.032348511023379</v>
+        <v>1.045357673514832</v>
+      </c>
+      <c r="M6">
+        <v>1.055924685294516</v>
       </c>
       <c r="N6">
-        <v>1.016468494644593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017712621941514</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052832924139977</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046805573196443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018158148362824</v>
+        <v>1.022266773787528</v>
       </c>
       <c r="D7">
-        <v>1.033019227887842</v>
+        <v>1.04047819561868</v>
       </c>
       <c r="E7">
-        <v>1.021654711344404</v>
+        <v>1.035167046106057</v>
+      </c>
+      <c r="F7">
+        <v>1.045865505234188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052222423983569</v>
+        <v>1.056088279022543</v>
       </c>
       <c r="J7">
-        <v>1.037102576993046</v>
+        <v>1.041111659562396</v>
       </c>
       <c r="K7">
-        <v>1.042731953054313</v>
+        <v>1.050108602548565</v>
       </c>
       <c r="L7">
-        <v>1.031495707380834</v>
+        <v>1.044855918111454</v>
+      </c>
+      <c r="M7">
+        <v>1.055437352705603</v>
       </c>
       <c r="N7">
-        <v>1.016186086354915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017561670438201</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052447239425546</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046519532656914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01222112975666</v>
+        <v>1.018093298894048</v>
       </c>
       <c r="D8">
-        <v>1.02851727458434</v>
+        <v>1.037658581687638</v>
       </c>
       <c r="E8">
-        <v>1.016894829319001</v>
+        <v>1.031955730549963</v>
+      </c>
+      <c r="F8">
+        <v>1.042732868604965</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050127020506587</v>
+        <v>1.055063413616599</v>
       </c>
       <c r="J8">
-        <v>1.033480666421126</v>
+        <v>1.039189361999717</v>
       </c>
       <c r="K8">
-        <v>1.039324334419226</v>
+        <v>1.048351506370018</v>
       </c>
       <c r="L8">
-        <v>1.027850710956709</v>
+        <v>1.042719563267506</v>
+      </c>
+      <c r="M8">
+        <v>1.053363511401252</v>
       </c>
       <c r="N8">
-        <v>1.014976782767273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016916290734799</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050805957910397</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045281665714709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001243083346423</v>
+        <v>1.010468825788723</v>
       </c>
       <c r="D9">
-        <v>1.020207689961287</v>
+        <v>1.032528372870175</v>
       </c>
       <c r="E9">
-        <v>1.008141326537235</v>
+        <v>1.026133571288372</v>
+      </c>
+      <c r="F9">
+        <v>1.037060681111518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046164588999382</v>
+        <v>1.053116049427674</v>
       </c>
       <c r="J9">
-        <v>1.026752021373214</v>
+        <v>1.035657242881101</v>
       </c>
       <c r="K9">
-        <v>1.032981203752302</v>
+        <v>1.045114858846532</v>
       </c>
       <c r="L9">
-        <v>1.021103683059596</v>
+        <v>1.038816415798621</v>
+      </c>
+      <c r="M9">
+        <v>1.049579787463472</v>
       </c>
       <c r="N9">
-        <v>1.012729834708527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015729467481391</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047811430115827</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042990034760279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9935387098045255</v>
+        <v>1.005244883055553</v>
       </c>
       <c r="D10">
-        <v>1.014389790992958</v>
+        <v>1.02905532298928</v>
       </c>
       <c r="E10">
-        <v>1.002033747259128</v>
+        <v>1.022203930554227</v>
+      </c>
+      <c r="F10">
+        <v>1.033275753641431</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04332705402544</v>
+        <v>1.051756109240186</v>
       </c>
       <c r="J10">
-        <v>1.022011048990577</v>
+        <v>1.033251941774285</v>
       </c>
       <c r="K10">
-        <v>1.028504004592678</v>
+        <v>1.042919069635971</v>
       </c>
       <c r="L10">
-        <v>1.016366378603673</v>
+        <v>1.036183534153414</v>
+      </c>
+      <c r="M10">
+        <v>1.04706911747235</v>
       </c>
       <c r="N10">
-        <v>1.011146589605246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014925814008361</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045875401169005</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041454175383742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.990101759518608</v>
+        <v>1.003287471731025</v>
       </c>
       <c r="D11">
-        <v>1.01179853314884</v>
+        <v>1.027909799902449</v>
       </c>
       <c r="E11">
-        <v>0.9993183377879632</v>
+        <v>1.020946899904771</v>
+      </c>
+      <c r="F11">
+        <v>1.032371399657872</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042048410829835</v>
+        <v>1.051375633466924</v>
       </c>
       <c r="J11">
-        <v>1.019892194187457</v>
+        <v>1.032524124674579</v>
       </c>
       <c r="K11">
-        <v>1.026501324461004</v>
+        <v>1.042323897399636</v>
       </c>
       <c r="L11">
-        <v>1.014253120719209</v>
+        <v>1.035484312165988</v>
+      </c>
+      <c r="M11">
+        <v>1.046707612762308</v>
       </c>
       <c r="N11">
-        <v>1.010439027035812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014716025719396</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046021756563338</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04106594796274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9888090942145744</v>
+        <v>1.002675853067899</v>
       </c>
       <c r="D12">
-        <v>1.010824637924895</v>
+        <v>1.02761109351706</v>
       </c>
       <c r="E12">
-        <v>0.9982985012524596</v>
+        <v>1.020642143463732</v>
+      </c>
+      <c r="F12">
+        <v>1.032303561014109</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041565635349212</v>
+        <v>1.051309889778575</v>
       </c>
       <c r="J12">
-        <v>1.019094742507509</v>
+        <v>1.032367396146104</v>
       </c>
       <c r="K12">
-        <v>1.025747352351479</v>
+        <v>1.042227760985192</v>
       </c>
       <c r="L12">
-        <v>1.013458372054764</v>
+        <v>1.035384277325764</v>
+      </c>
+      <c r="M12">
+        <v>1.046836984411537</v>
       </c>
       <c r="N12">
-        <v>1.010172736689854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014689461512784</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046447901058185</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040997977440378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.98908711532062</v>
+        <v>1.003070057966645</v>
       </c>
       <c r="D13">
-        <v>1.011034066445926</v>
+        <v>1.027959263126225</v>
       </c>
       <c r="E13">
-        <v>0.998517776770804</v>
+        <v>1.021061275345756</v>
+      </c>
+      <c r="F13">
+        <v>1.032894673090995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041669552116163</v>
+        <v>1.051495142952534</v>
       </c>
       <c r="J13">
-        <v>1.019266278341975</v>
+        <v>1.032652905350652</v>
       </c>
       <c r="K13">
-        <v>1.025909546312818</v>
+        <v>1.042527416100846</v>
       </c>
       <c r="L13">
-        <v>1.013629299471798</v>
+        <v>1.035753082226525</v>
+      </c>
+      <c r="M13">
+        <v>1.047375666961017</v>
       </c>
       <c r="N13">
-        <v>1.010230016664566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014807816318519</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047148553096581</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041207367916227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.989995239641106</v>
+        <v>1.003802606956292</v>
       </c>
       <c r="D14">
-        <v>1.011718266325085</v>
+        <v>1.028497380825719</v>
       </c>
       <c r="E14">
-        <v>0.9992342699998907</v>
+        <v>1.021682823249745</v>
+      </c>
+      <c r="F14">
+        <v>1.03360749432873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042008666146922</v>
+        <v>1.051738853562601</v>
       </c>
       <c r="J14">
-        <v>1.019826492068486</v>
+        <v>1.033053473515849</v>
       </c>
       <c r="K14">
-        <v>1.026439209504988</v>
+        <v>1.042917462582695</v>
       </c>
       <c r="L14">
-        <v>1.014187629168686</v>
+        <v>1.036223547487036</v>
+      </c>
+      <c r="M14">
+        <v>1.047938459012315</v>
       </c>
       <c r="N14">
-        <v>1.010417087171336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014956519484249</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047765684059643</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041484552182225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9905526139295177</v>
+        <v>1.00420413587793</v>
       </c>
       <c r="D15">
-        <v>1.012138298207416</v>
+        <v>1.028776322937398</v>
       </c>
       <c r="E15">
-        <v>0.9996742213822902</v>
+        <v>1.021999104415547</v>
+      </c>
+      <c r="F15">
+        <v>1.033937482283106</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042216557828138</v>
+        <v>1.051857069056056</v>
       </c>
       <c r="J15">
-        <v>1.020170262570611</v>
+        <v>1.033253020629507</v>
       </c>
       <c r="K15">
-        <v>1.026764201185746</v>
+        <v>1.0431061943296</v>
       </c>
       <c r="L15">
-        <v>1.014530322237672</v>
+        <v>1.036448049940453</v>
+      </c>
+      <c r="M15">
+        <v>1.048178026979673</v>
       </c>
       <c r="N15">
-        <v>1.010531882560555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015026598855706</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04799236393292</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041623811868394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9937646101904853</v>
+        <v>1.006338488933125</v>
       </c>
       <c r="D16">
-        <v>1.014560199002732</v>
+        <v>1.03018455746137</v>
       </c>
       <c r="E16">
-        <v>1.002212420263006</v>
+        <v>1.023585131945404</v>
+      </c>
+      <c r="F16">
+        <v>1.035452504562254</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043410833494735</v>
+        <v>1.052414518152057</v>
       </c>
       <c r="J16">
-        <v>1.022150238243958</v>
+        <v>1.034226873576018</v>
       </c>
       <c r="K16">
-        <v>1.028635527733592</v>
+        <v>1.04399425693149</v>
       </c>
       <c r="L16">
-        <v>1.016505282685751</v>
+        <v>1.037505751285913</v>
+      </c>
+      <c r="M16">
+        <v>1.049174968313873</v>
       </c>
       <c r="N16">
-        <v>1.011193070828353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015348110505476</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04874185400523</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042254835774616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9957518016910356</v>
+        <v>1.007594250167415</v>
       </c>
       <c r="D17">
-        <v>1.016059716001583</v>
+        <v>1.030984399299267</v>
       </c>
       <c r="E17">
-        <v>1.003785218514015</v>
+        <v>1.024477771465386</v>
+      </c>
+      <c r="F17">
+        <v>1.036238129118766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044146371585891</v>
+        <v>1.052712097292541</v>
       </c>
       <c r="J17">
-        <v>1.023374216476158</v>
+        <v>1.0347636884917</v>
       </c>
       <c r="K17">
-        <v>1.02979190011742</v>
+        <v>1.0444701275734</v>
       </c>
       <c r="L17">
-        <v>1.017727203057371</v>
+        <v>1.038069809889253</v>
+      </c>
+      <c r="M17">
+        <v>1.049639267147027</v>
       </c>
       <c r="N17">
-        <v>1.011601812906961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015516629956235</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048980603937991</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042593856489422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9969012229406686</v>
+        <v>1.008201710631567</v>
       </c>
       <c r="D18">
-        <v>1.016927445072699</v>
+        <v>1.031315308920994</v>
       </c>
       <c r="E18">
-        <v>1.004695816287478</v>
+        <v>1.024834454903071</v>
+      </c>
+      <c r="F18">
+        <v>1.036429038948937</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044570599963892</v>
+        <v>1.05280372080465</v>
       </c>
       <c r="J18">
-        <v>1.024081811668129</v>
+        <v>1.034958408322658</v>
       </c>
       <c r="K18">
-        <v>1.030460248644648</v>
+        <v>1.044614539297296</v>
       </c>
       <c r="L18">
-        <v>1.018433983143491</v>
+        <v>1.03823785344399</v>
+      </c>
+      <c r="M18">
+        <v>1.049647252085824</v>
       </c>
       <c r="N18">
-        <v>1.011838113567084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01556237809215</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048750877696159</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042684420685154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9972915303628028</v>
+        <v>1.008228137933961</v>
       </c>
       <c r="D19">
-        <v>1.017222161891253</v>
+        <v>1.031232631753521</v>
       </c>
       <c r="E19">
-        <v>1.005005171966681</v>
+        <v>1.024709154450167</v>
+      </c>
+      <c r="F19">
+        <v>1.036084556409624</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044714446382156</v>
+        <v>1.052716722905503</v>
       </c>
       <c r="J19">
-        <v>1.024322024203222</v>
+        <v>1.034851027744547</v>
       </c>
       <c r="K19">
-        <v>1.030687109791191</v>
+        <v>1.04447140685979</v>
       </c>
       <c r="L19">
-        <v>1.018673982454663</v>
+        <v>1.03805225147341</v>
+      </c>
+      <c r="M19">
+        <v>1.04924683041524</v>
       </c>
       <c r="N19">
-        <v>1.011918332589507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01550215666715</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048111328003562</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042589564440085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9955396015452376</v>
+        <v>1.006617605546216</v>
       </c>
       <c r="D20">
-        <v>1.015899551062685</v>
+        <v>1.02998123378643</v>
       </c>
       <c r="E20">
-        <v>1.003617178391683</v>
+        <v>1.023239274190927</v>
+      </c>
+      <c r="F20">
+        <v>1.03427529341967</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044067953904179</v>
+        <v>1.052127543661399</v>
       </c>
       <c r="J20">
-        <v>1.023243553508486</v>
+        <v>1.033895791630841</v>
       </c>
       <c r="K20">
-        <v>1.029668471079125</v>
+        <v>1.043516618543439</v>
       </c>
       <c r="L20">
-        <v>1.017596720882966</v>
+        <v>1.036885437357545</v>
+      </c>
+      <c r="M20">
+        <v>1.047741087833808</v>
       </c>
       <c r="N20">
-        <v>1.011558178317098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015143644778306</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046396734286746</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041918390091868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9897282694454242</v>
+        <v>1.002637493927724</v>
       </c>
       <c r="D21">
-        <v>1.011517105533607</v>
+        <v>1.027311743698176</v>
       </c>
       <c r="E21">
-        <v>0.9990235949692586</v>
+        <v>1.020216580475138</v>
+      </c>
+      <c r="F21">
+        <v>1.031306160853791</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041909024387126</v>
+        <v>1.051048061951996</v>
       </c>
       <c r="J21">
-        <v>1.019661814796939</v>
+        <v>1.032025355003652</v>
       </c>
       <c r="K21">
-        <v>1.026283519297926</v>
+        <v>1.041793524853335</v>
       </c>
       <c r="L21">
-        <v>1.014023489284857</v>
+        <v>1.034824805631177</v>
+      </c>
+      <c r="M21">
+        <v>1.04571774837164</v>
       </c>
       <c r="N21">
-        <v>1.010362096737323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014512442774296</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044754909378305</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040703314624371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9859812370199904</v>
+        <v>1.000105090971405</v>
       </c>
       <c r="D22">
-        <v>1.008695501527043</v>
+        <v>1.025622150217246</v>
       </c>
       <c r="E22">
-        <v>0.996070237596922</v>
+        <v>1.018312274521351</v>
+      </c>
+      <c r="F22">
+        <v>1.02945568140522</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040506137611102</v>
+        <v>1.050357115134187</v>
       </c>
       <c r="J22">
-        <v>1.017349301760429</v>
+        <v>1.030840672043089</v>
       </c>
       <c r="K22">
-        <v>1.02409664481119</v>
+        <v>1.040702560576603</v>
       </c>
       <c r="L22">
-        <v>1.011719947900046</v>
+        <v>1.033529485932637</v>
+      </c>
+      <c r="M22">
+        <v>1.044465360483971</v>
       </c>
       <c r="N22">
-        <v>1.009589905768709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014113575129124</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043763733469459</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039918565125079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.987976753190612</v>
+        <v>1.001444356911127</v>
       </c>
       <c r="D23">
-        <v>1.010197758266156</v>
+        <v>1.026510211129679</v>
       </c>
       <c r="E23">
-        <v>0.9976422512350068</v>
+        <v>1.019317187290129</v>
+      </c>
+      <c r="F23">
+        <v>1.03043191103685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041254259672941</v>
+        <v>1.050719807780991</v>
       </c>
       <c r="J23">
-        <v>1.018581123620499</v>
+        <v>1.031463677703948</v>
       </c>
       <c r="K23">
-        <v>1.025261670545657</v>
+        <v>1.041273085127523</v>
       </c>
       <c r="L23">
-        <v>1.012946662523227</v>
+        <v>1.034211257611261</v>
+      </c>
+      <c r="M23">
+        <v>1.045124257683037</v>
       </c>
       <c r="N23">
-        <v>1.01000122829891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014322377742598</v>
+      </c>
+      <c r="O23">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P23">
+        <v>1.044285203891238</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040312384770212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9956355154888156</v>
+        <v>1.006637697215474</v>
       </c>
       <c r="D24">
-        <v>1.015971944029499</v>
+        <v>1.029972399936971</v>
       </c>
       <c r="E24">
-        <v>1.003693129427358</v>
+        <v>1.023231893029118</v>
+      </c>
+      <c r="F24">
+        <v>1.034237595573957</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044103402284376</v>
+        <v>1.052113946392446</v>
       </c>
       <c r="J24">
-        <v>1.023302614006087</v>
+        <v>1.033882607089534</v>
       </c>
       <c r="K24">
-        <v>1.02972426230092</v>
+        <v>1.043492846195547</v>
       </c>
       <c r="L24">
-        <v>1.017655698499125</v>
+        <v>1.03686295436604</v>
+      </c>
+      <c r="M24">
+        <v>1.04768900357632</v>
       </c>
       <c r="N24">
-        <v>1.011577901423799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015134816344049</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046315014906202</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041874397553793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004146160536939</v>
+        <v>1.012484537953651</v>
       </c>
       <c r="D25">
-        <v>1.022403014161918</v>
+        <v>1.033889794934143</v>
       </c>
       <c r="E25">
-        <v>1.01045024470542</v>
+        <v>1.027669486116397</v>
+      </c>
+      <c r="F25">
+        <v>1.038556514184085</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047222392724571</v>
+        <v>1.053645148683926</v>
       </c>
       <c r="J25">
-        <v>1.028534790992547</v>
+        <v>1.036598930519904</v>
       </c>
       <c r="K25">
-        <v>1.034663228938145</v>
+        <v>1.045983846402161</v>
       </c>
       <c r="L25">
-        <v>1.022888471531949</v>
+        <v>1.039852933660785</v>
+      </c>
+      <c r="M25">
+        <v>1.050584385787442</v>
       </c>
       <c r="N25">
-        <v>1.013325191399416</v>
+        <v>1.01604733966941</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048606493947722</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043632797313272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016991308562544</v>
+        <v>1.016038079309049</v>
       </c>
       <c r="D2">
-        <v>1.036908555055022</v>
+        <v>1.035281877565213</v>
       </c>
       <c r="E2">
-        <v>1.03110897747646</v>
+        <v>1.030218088134239</v>
       </c>
       <c r="F2">
-        <v>1.041906967914536</v>
+        <v>1.040840309596706</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I2">
-        <v>1.054782619555858</v>
+        <v>1.053927692420309</v>
       </c>
       <c r="J2">
-        <v>1.038675423316941</v>
+        <v>1.037749451805295</v>
       </c>
       <c r="K2">
-        <v>1.047876571079923</v>
+        <v>1.046270625182774</v>
       </c>
       <c r="L2">
-        <v>1.042151281792482</v>
+        <v>1.041271896802038</v>
       </c>
       <c r="M2">
-        <v>1.052811785704029</v>
+        <v>1.051758550292288</v>
       </c>
       <c r="N2">
-        <v>1.016742558127913</v>
+        <v>1.017176744383606</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050369310013575</v>
+        <v>1.049535755548237</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044923145675912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043796323622671</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024317570652544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020202066354558</v>
+        <v>1.019149663839934</v>
       </c>
       <c r="D3">
-        <v>1.03907530768913</v>
+        <v>1.03731375075605</v>
       </c>
       <c r="E3">
-        <v>1.033574363546514</v>
+        <v>1.032593228394152</v>
       </c>
       <c r="F3">
-        <v>1.044311053012233</v>
+        <v>1.0431505481482</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055580059444207</v>
+        <v>1.054647869148624</v>
       </c>
       <c r="J3">
-        <v>1.040156753435529</v>
+        <v>1.039131561909747</v>
       </c>
       <c r="K3">
-        <v>1.04923148159907</v>
+        <v>1.047490458476425</v>
       </c>
       <c r="L3">
-        <v>1.043794947114763</v>
+        <v>1.042825389220534</v>
       </c>
       <c r="M3">
-        <v>1.054406700758564</v>
+        <v>1.053259546811151</v>
       </c>
       <c r="N3">
-        <v>1.017240030439241</v>
+        <v>1.017545033437044</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051631560301418</v>
+        <v>1.050723678058139</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045878525400448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044655920105635</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024545306763553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022247217943756</v>
+        <v>1.021132144123057</v>
       </c>
       <c r="D4">
-        <v>1.040459102721976</v>
+        <v>1.038611945032161</v>
       </c>
       <c r="E4">
-        <v>1.035150524731807</v>
+        <v>1.034112291817131</v>
       </c>
       <c r="F4">
-        <v>1.045849005787821</v>
+        <v>1.044629042442365</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056079177354475</v>
+        <v>1.055097877342108</v>
       </c>
       <c r="J4">
-        <v>1.041098464021271</v>
+        <v>1.040010310717157</v>
       </c>
       <c r="K4">
-        <v>1.050092564516059</v>
+        <v>1.048265664658566</v>
       </c>
       <c r="L4">
-        <v>1.044842445209311</v>
+        <v>1.043815731735966</v>
       </c>
       <c r="M4">
-        <v>1.055423858005102</v>
+        <v>1.05421709553405</v>
       </c>
       <c r="N4">
-        <v>1.01755634316929</v>
+        <v>1.017779272189043</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052436559448057</v>
+        <v>1.051481502735099</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046488261689837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045205018981847</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024687775475393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023101911889212</v>
+        <v>1.021960758704613</v>
       </c>
       <c r="D5">
-        <v>1.041040044814927</v>
+        <v>1.03915724176846</v>
       </c>
       <c r="E5">
-        <v>1.035811020982563</v>
+        <v>1.034749017373862</v>
       </c>
       <c r="F5">
-        <v>1.046493843147263</v>
+        <v>1.045249127254599</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056286948438843</v>
+        <v>1.055285169422218</v>
       </c>
       <c r="J5">
-        <v>1.041492833422893</v>
+        <v>1.040378423643796</v>
       </c>
       <c r="K5">
-        <v>1.050454321437726</v>
+        <v>1.04859162753284</v>
       </c>
       <c r="L5">
-        <v>1.045281366976456</v>
+        <v>1.044230835830745</v>
       </c>
       <c r="M5">
-        <v>1.055850370216383</v>
+        <v>1.054618769546012</v>
       </c>
       <c r="N5">
-        <v>1.017689090549493</v>
+        <v>1.017877622029987</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052774109720172</v>
+        <v>1.051799395968808</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046751155398588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045443314808167</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024747573842557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023247999612773</v>
+        <v>1.02210239266901</v>
       </c>
       <c r="D6">
-        <v>1.041141563674837</v>
+        <v>1.039252739298559</v>
       </c>
       <c r="E6">
-        <v>1.035924521135587</v>
+        <v>1.034858461225157</v>
       </c>
       <c r="F6">
-        <v>1.046604809632641</v>
+        <v>1.045355894013103</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056323956975732</v>
+        <v>1.055318703785117</v>
       </c>
       <c r="J6">
-        <v>1.041561769606092</v>
+        <v>1.040442875159017</v>
       </c>
       <c r="K6">
-        <v>1.050519028035423</v>
+        <v>1.048650286391904</v>
       </c>
       <c r="L6">
-        <v>1.045357673514832</v>
+        <v>1.044303077668274</v>
       </c>
       <c r="M6">
-        <v>1.055924685294516</v>
+        <v>1.054688869759298</v>
       </c>
       <c r="N6">
-        <v>1.017712621941514</v>
+        <v>1.017895094264144</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052832924139977</v>
+        <v>1.051854874733377</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046805573196443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045494324615669</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024758838958621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022266773787528</v>
+        <v>1.021157350880988</v>
       </c>
       <c r="D7">
-        <v>1.04047819561868</v>
+        <v>1.038634793639848</v>
       </c>
       <c r="E7">
-        <v>1.035167046106057</v>
+        <v>1.034133419272332</v>
       </c>
       <c r="F7">
-        <v>1.045865505234188</v>
+        <v>1.044649027469799</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056088279022543</v>
+        <v>1.05510981353672</v>
       </c>
       <c r="J7">
-        <v>1.041111659562396</v>
+        <v>1.040029009425018</v>
       </c>
       <c r="K7">
-        <v>1.050108602548565</v>
+        <v>1.048285409487717</v>
       </c>
       <c r="L7">
-        <v>1.044855918111454</v>
+        <v>1.04383375528124</v>
       </c>
       <c r="M7">
-        <v>1.055437352705603</v>
+        <v>1.054234033164481</v>
       </c>
       <c r="N7">
-        <v>1.017561670438201</v>
+        <v>1.017810688742461</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052447239425546</v>
+        <v>1.05149490753362</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046519532656914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045240908181837</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024693404306882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018093298894048</v>
+        <v>1.017125060511853</v>
       </c>
       <c r="D8">
-        <v>1.037658581687638</v>
+        <v>1.035999209531132</v>
       </c>
       <c r="E8">
-        <v>1.031955730549963</v>
+        <v>1.031049556850789</v>
       </c>
       <c r="F8">
-        <v>1.042732868604965</v>
+        <v>1.041646216038245</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055063413616599</v>
+        <v>1.054191910604733</v>
       </c>
       <c r="J8">
-        <v>1.039189361999717</v>
+        <v>1.038247900862368</v>
       </c>
       <c r="K8">
-        <v>1.048351506370018</v>
+        <v>1.046712666210702</v>
       </c>
       <c r="L8">
-        <v>1.042719563267506</v>
+        <v>1.041824746790597</v>
       </c>
       <c r="M8">
-        <v>1.053363511401252</v>
+        <v>1.052290132939076</v>
       </c>
       <c r="N8">
-        <v>1.016916290734799</v>
+        <v>1.01738866443154</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050805957910397</v>
+        <v>1.049956462264523</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045281665714709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044133851465569</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02440403319352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010468825788723</v>
+        <v>1.009741930158276</v>
       </c>
       <c r="D9">
-        <v>1.032528372870175</v>
+        <v>1.031192896150088</v>
       </c>
       <c r="E9">
-        <v>1.026133571288372</v>
+        <v>1.025446291505167</v>
       </c>
       <c r="F9">
-        <v>1.037060681111518</v>
+        <v>1.036200508911681</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053116049427674</v>
+        <v>1.052429945344414</v>
       </c>
       <c r="J9">
-        <v>1.035657242881101</v>
+        <v>1.03495530450984</v>
       </c>
       <c r="K9">
-        <v>1.045114858846532</v>
+        <v>1.043799379782475</v>
       </c>
       <c r="L9">
-        <v>1.038816415798621</v>
+        <v>1.038139583295719</v>
       </c>
       <c r="M9">
-        <v>1.049579787463472</v>
+        <v>1.048732345431455</v>
       </c>
       <c r="N9">
-        <v>1.015729467481391</v>
+        <v>1.016520399013427</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047811430115827</v>
+        <v>1.047140742976272</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042990034760279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042070569534081</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023846170051822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005244883055553</v>
+        <v>1.004711427162733</v>
       </c>
       <c r="D10">
-        <v>1.02905532298928</v>
+        <v>1.027960167271424</v>
       </c>
       <c r="E10">
-        <v>1.022203930554227</v>
+        <v>1.02168908559149</v>
       </c>
       <c r="F10">
-        <v>1.033275753641431</v>
+        <v>1.032588155688114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051756109240186</v>
+        <v>1.051210062764729</v>
       </c>
       <c r="J10">
-        <v>1.033251941774285</v>
+        <v>1.032739355691241</v>
       </c>
       <c r="K10">
-        <v>1.042919069635971</v>
+        <v>1.041842299267169</v>
       </c>
       <c r="L10">
-        <v>1.036183534153414</v>
+        <v>1.035677476296233</v>
       </c>
       <c r="M10">
-        <v>1.04706911747235</v>
+        <v>1.046392935856077</v>
       </c>
       <c r="N10">
-        <v>1.014925814008361</v>
+        <v>1.01604947438716</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045875401169005</v>
+        <v>1.045340285305084</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041454175383742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040705164057606</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023467500369837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003287471731025</v>
+        <v>1.002849131396927</v>
       </c>
       <c r="D11">
-        <v>1.027909799902449</v>
+        <v>1.026912444114162</v>
       </c>
       <c r="E11">
-        <v>1.020946899904771</v>
+        <v>1.020511836384677</v>
       </c>
       <c r="F11">
-        <v>1.032371399657872</v>
+        <v>1.031758895368361</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051375633466924</v>
+        <v>1.050890436343069</v>
       </c>
       <c r="J11">
-        <v>1.032524124674579</v>
+        <v>1.032103861641525</v>
       </c>
       <c r="K11">
-        <v>1.042323897399636</v>
+        <v>1.04134407203058</v>
       </c>
       <c r="L11">
-        <v>1.035484312165988</v>
+        <v>1.035057026272953</v>
       </c>
       <c r="M11">
-        <v>1.046707612762308</v>
+        <v>1.04610574908539</v>
       </c>
       <c r="N11">
-        <v>1.014716025719396</v>
+        <v>1.016131230416967</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046021756563338</v>
+        <v>1.045545689876666</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04106594796274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040388693331044</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023410893645835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002675853067899</v>
+        <v>1.002264038617449</v>
       </c>
       <c r="D12">
-        <v>1.02761109351706</v>
+        <v>1.026638312102465</v>
       </c>
       <c r="E12">
-        <v>1.020642143463732</v>
+        <v>1.02022760834729</v>
       </c>
       <c r="F12">
-        <v>1.032303561014109</v>
+        <v>1.031710570571253</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051309889778575</v>
+        <v>1.050840687715185</v>
       </c>
       <c r="J12">
-        <v>1.032367396146104</v>
+        <v>1.031972888381733</v>
       </c>
       <c r="K12">
-        <v>1.042227760985192</v>
+        <v>1.041272360323685</v>
       </c>
       <c r="L12">
-        <v>1.035384277325764</v>
+        <v>1.034977275621909</v>
       </c>
       <c r="M12">
-        <v>1.046836984411537</v>
+        <v>1.046254459375698</v>
       </c>
       <c r="N12">
-        <v>1.014689461512784</v>
+        <v>1.016215047694027</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046447901058185</v>
+        <v>1.045987284561847</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040997977440378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040337992565792</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023424603367302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003070057966645</v>
+        <v>1.002624973076597</v>
       </c>
       <c r="D13">
-        <v>1.027959263126225</v>
+        <v>1.026950179513007</v>
       </c>
       <c r="E13">
-        <v>1.021061275345756</v>
+        <v>1.020616107462871</v>
       </c>
       <c r="F13">
-        <v>1.032894673090995</v>
+        <v>1.032274283070724</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051495142952534</v>
+        <v>1.051004054753018</v>
       </c>
       <c r="J13">
-        <v>1.032652905350652</v>
+        <v>1.032226437008346</v>
       </c>
       <c r="K13">
-        <v>1.042527416100846</v>
+        <v>1.041536286757135</v>
       </c>
       <c r="L13">
-        <v>1.035753082226525</v>
+        <v>1.035315969128309</v>
       </c>
       <c r="M13">
-        <v>1.047375666961017</v>
+        <v>1.04676617364136</v>
       </c>
       <c r="N13">
-        <v>1.014807816318519</v>
+        <v>1.016275114211149</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047148553096581</v>
+        <v>1.04666673167028</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041207367916227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040521876119241</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023498280057091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003802606956292</v>
+        <v>1.003307774087569</v>
       </c>
       <c r="D14">
-        <v>1.028497380825719</v>
+        <v>1.027435844972563</v>
       </c>
       <c r="E14">
-        <v>1.021682823249745</v>
+        <v>1.021193735416695</v>
       </c>
       <c r="F14">
-        <v>1.03360749432873</v>
+        <v>1.032947205312344</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051738853562601</v>
+        <v>1.051215625177139</v>
       </c>
       <c r="J14">
-        <v>1.033053473515849</v>
+        <v>1.032579048690392</v>
       </c>
       <c r="K14">
-        <v>1.042917462582695</v>
+        <v>1.041874583373793</v>
       </c>
       <c r="L14">
-        <v>1.036223547487036</v>
+        <v>1.035743198708843</v>
       </c>
       <c r="M14">
-        <v>1.047938459012315</v>
+        <v>1.047289620809667</v>
       </c>
       <c r="N14">
-        <v>1.014956519484249</v>
+        <v>1.016307850250359</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047765684059643</v>
+        <v>1.047252827973101</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041484552182225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040762606181156</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023577521552018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00420413587793</v>
+        <v>1.003684483519569</v>
       </c>
       <c r="D15">
-        <v>1.028776322937398</v>
+        <v>1.027688829316431</v>
       </c>
       <c r="E15">
-        <v>1.021999104415547</v>
+        <v>1.021488464460827</v>
       </c>
       <c r="F15">
-        <v>1.033937482283106</v>
+        <v>1.033257421665289</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051857069056056</v>
+        <v>1.051317851083756</v>
       </c>
       <c r="J15">
-        <v>1.033253020629507</v>
+        <v>1.032754616544665</v>
       </c>
       <c r="K15">
-        <v>1.0431061943296</v>
+        <v>1.042037670708249</v>
       </c>
       <c r="L15">
-        <v>1.036448049940453</v>
+        <v>1.035946464861049</v>
       </c>
       <c r="M15">
-        <v>1.048178026979673</v>
+        <v>1.047509670496077</v>
       </c>
       <c r="N15">
-        <v>1.015026598855706</v>
+        <v>1.016315266950903</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04799236393292</v>
+        <v>1.047464093973077</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041623811868394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040884303624765</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023612300808965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006338488933125</v>
+        <v>1.005702861791173</v>
       </c>
       <c r="D16">
-        <v>1.03018455746137</v>
+        <v>1.028973928872942</v>
       </c>
       <c r="E16">
-        <v>1.023585131945404</v>
+        <v>1.022974848625916</v>
       </c>
       <c r="F16">
-        <v>1.035452504562254</v>
+        <v>1.034679281069421</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052414518152057</v>
+        <v>1.051799647353772</v>
       </c>
       <c r="J16">
-        <v>1.034226873576018</v>
+        <v>1.033615961328756</v>
       </c>
       <c r="K16">
-        <v>1.04399425693149</v>
+        <v>1.042803838665498</v>
       </c>
       <c r="L16">
-        <v>1.037505751285913</v>
+        <v>1.036905818624418</v>
       </c>
       <c r="M16">
-        <v>1.049174968313873</v>
+        <v>1.048414477621698</v>
       </c>
       <c r="N16">
-        <v>1.015348110505476</v>
+        <v>1.01633571940657</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04874185400523</v>
+        <v>1.048140744103525</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042254835774616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04142944472323</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023757901868291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007594250167415</v>
+        <v>1.006902340136723</v>
       </c>
       <c r="D17">
-        <v>1.030984399299267</v>
+        <v>1.02971134459263</v>
       </c>
       <c r="E17">
-        <v>1.024477771465386</v>
+        <v>1.023819225326111</v>
       </c>
       <c r="F17">
-        <v>1.036238129118766</v>
+        <v>1.035418387996891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052712097292541</v>
+        <v>1.052059339813564</v>
       </c>
       <c r="J17">
-        <v>1.0347636884917</v>
+        <v>1.034097831499325</v>
       </c>
       <c r="K17">
-        <v>1.0444701275734</v>
+        <v>1.043217737188488</v>
       </c>
       <c r="L17">
-        <v>1.038069809889253</v>
+        <v>1.037422120457689</v>
       </c>
       <c r="M17">
-        <v>1.049639267147027</v>
+        <v>1.048832652183584</v>
       </c>
       <c r="N17">
-        <v>1.015516629956235</v>
+        <v>1.016362489277001</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048980603937991</v>
+        <v>1.048342973475597</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042593856489422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041724897316162</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023828314791684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008201710631567</v>
+        <v>1.007492238992642</v>
       </c>
       <c r="D18">
-        <v>1.031315308920994</v>
+        <v>1.030021704571862</v>
       </c>
       <c r="E18">
-        <v>1.024834454903071</v>
+        <v>1.024161524166756</v>
       </c>
       <c r="F18">
-        <v>1.036429038948937</v>
+        <v>1.03559419333957</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05280372080465</v>
+        <v>1.052138602229351</v>
       </c>
       <c r="J18">
-        <v>1.034958408322658</v>
+        <v>1.034275156371042</v>
       </c>
       <c r="K18">
-        <v>1.044614539297296</v>
+        <v>1.043341593076049</v>
       </c>
       <c r="L18">
-        <v>1.03823785344399</v>
+        <v>1.037575835893607</v>
       </c>
       <c r="M18">
-        <v>1.049647252085824</v>
+        <v>1.04882556304656</v>
       </c>
       <c r="N18">
-        <v>1.01556237809215</v>
+        <v>1.016355369952301</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048750877696159</v>
+        <v>1.048101197469754</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042684420685154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041799793392742</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023832957630676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008228137933961</v>
+        <v>1.007531378950706</v>
       </c>
       <c r="D19">
-        <v>1.031232631753521</v>
+        <v>1.029953299571358</v>
       </c>
       <c r="E19">
-        <v>1.024709154450167</v>
+        <v>1.024048690672518</v>
       </c>
       <c r="F19">
-        <v>1.036084556409624</v>
+        <v>1.035260177881728</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052716722905503</v>
+        <v>1.05206004913416</v>
       </c>
       <c r="J19">
-        <v>1.034851027744547</v>
+        <v>1.034179866030289</v>
       </c>
       <c r="K19">
-        <v>1.04447140685979</v>
+        <v>1.043212399978958</v>
       </c>
       <c r="L19">
-        <v>1.03805225147341</v>
+        <v>1.037402444776719</v>
       </c>
       <c r="M19">
-        <v>1.04924683041524</v>
+        <v>1.048435385302713</v>
       </c>
       <c r="N19">
-        <v>1.01550215666715</v>
+        <v>1.016301745278227</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048111328003562</v>
+        <v>1.047469540764992</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042589564440085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041715417389038</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023781651206072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006617605546216</v>
+        <v>1.006015660505281</v>
       </c>
       <c r="D20">
-        <v>1.02998123378643</v>
+        <v>1.028810931869596</v>
       </c>
       <c r="E20">
-        <v>1.023239274190927</v>
+        <v>1.02266453071994</v>
       </c>
       <c r="F20">
-        <v>1.03427529341967</v>
+        <v>1.03353119402598</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052127543661399</v>
+        <v>1.051535854205368</v>
       </c>
       <c r="J20">
-        <v>1.033895791630841</v>
+        <v>1.033316641993604</v>
       </c>
       <c r="K20">
-        <v>1.043516618543439</v>
+        <v>1.04236541222956</v>
       </c>
       <c r="L20">
-        <v>1.036885437357545</v>
+        <v>1.036320224596396</v>
       </c>
       <c r="M20">
-        <v>1.047741087833808</v>
+        <v>1.047008994291258</v>
       </c>
       <c r="N20">
-        <v>1.015143644778306</v>
+        <v>1.016106650394696</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046396734286746</v>
+        <v>1.045817364008342</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041918390091868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041120851027359</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023571653836207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002637493927724</v>
+        <v>1.002270985206919</v>
       </c>
       <c r="D21">
-        <v>1.027311743698176</v>
+        <v>1.026387675843454</v>
       </c>
       <c r="E21">
-        <v>1.020216580475138</v>
+        <v>1.019846486912523</v>
       </c>
       <c r="F21">
-        <v>1.031306160853791</v>
+        <v>1.030750553152963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051048061951996</v>
+        <v>1.050608278086128</v>
       </c>
       <c r="J21">
-        <v>1.032025355003652</v>
+        <v>1.031674063364033</v>
       </c>
       <c r="K21">
-        <v>1.041793524853335</v>
+        <v>1.040885796521678</v>
       </c>
       <c r="L21">
-        <v>1.034824805631177</v>
+        <v>1.034461370307102</v>
       </c>
       <c r="M21">
-        <v>1.04571774837164</v>
+        <v>1.045171862130063</v>
       </c>
       <c r="N21">
-        <v>1.014512442774296</v>
+        <v>1.016082263846902</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044754909378305</v>
+        <v>1.044322879421809</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040703314624371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040078248579518</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023280977604826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000105090971405</v>
+        <v>0.9998861654643606</v>
       </c>
       <c r="D22">
-        <v>1.025622150217246</v>
+        <v>1.024852476795318</v>
       </c>
       <c r="E22">
-        <v>1.018312274521351</v>
+        <v>1.018070510409332</v>
       </c>
       <c r="F22">
-        <v>1.02945568140522</v>
+        <v>1.029018418888714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050357115134187</v>
+        <v>1.050012246828538</v>
       </c>
       <c r="J22">
-        <v>1.030840672043089</v>
+        <v>1.03063135551857</v>
       </c>
       <c r="K22">
-        <v>1.040702560576603</v>
+        <v>1.039947171354443</v>
       </c>
       <c r="L22">
-        <v>1.033529485932637</v>
+        <v>1.033292290189994</v>
       </c>
       <c r="M22">
-        <v>1.044465360483971</v>
+        <v>1.044036131071903</v>
       </c>
       <c r="N22">
-        <v>1.014113575129124</v>
+        <v>1.016060332082178</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043763733469459</v>
+        <v>1.04342402861873</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039918565125079</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039399907035198</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023095414695394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001444356911127</v>
+        <v>1.001137578457171</v>
       </c>
       <c r="D23">
-        <v>1.026510211129679</v>
+        <v>1.025651857480482</v>
       </c>
       <c r="E23">
-        <v>1.019317187290129</v>
+        <v>1.018999430303569</v>
       </c>
       <c r="F23">
-        <v>1.03043191103685</v>
+        <v>1.029925722845592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050719807780991</v>
+        <v>1.050319711618819</v>
       </c>
       <c r="J23">
-        <v>1.031463677703948</v>
+        <v>1.03116997647557</v>
       </c>
       <c r="K23">
-        <v>1.041273085127523</v>
+        <v>1.040430261565294</v>
       </c>
       <c r="L23">
-        <v>1.034211257611261</v>
+        <v>1.0338993519824</v>
       </c>
       <c r="M23">
-        <v>1.045124257683037</v>
+        <v>1.044627133502529</v>
       </c>
       <c r="N23">
-        <v>1.014322377742598</v>
+        <v>1.016028152016893</v>
       </c>
       <c r="O23">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044285203891238</v>
+        <v>1.043891765379556</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040312384770212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039730965407308</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023189038479039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006637697215474</v>
+        <v>1.006036592174306</v>
       </c>
       <c r="D24">
-        <v>1.029972399936971</v>
+        <v>1.028802841909428</v>
       </c>
       <c r="E24">
-        <v>1.023231893029118</v>
+        <v>1.022658097829586</v>
       </c>
       <c r="F24">
-        <v>1.034237595573957</v>
+        <v>1.03349413616691</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052113946392446</v>
+        <v>1.051522742529809</v>
       </c>
       <c r="J24">
-        <v>1.033882607089534</v>
+        <v>1.033304232419949</v>
       </c>
       <c r="K24">
-        <v>1.043492846195547</v>
+        <v>1.042342347638444</v>
       </c>
       <c r="L24">
-        <v>1.03686295436604</v>
+        <v>1.036298662129781</v>
       </c>
       <c r="M24">
-        <v>1.04768900357632</v>
+        <v>1.046957525490112</v>
       </c>
       <c r="N24">
-        <v>1.015134816344049</v>
+        <v>1.016096268033648</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046315014906202</v>
+        <v>1.045736103438693</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041874397553793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041074686757234</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023561608012554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012484537953651</v>
+        <v>1.011685622542855</v>
       </c>
       <c r="D25">
-        <v>1.033889794934143</v>
+        <v>1.032463246597678</v>
       </c>
       <c r="E25">
-        <v>1.027669486116397</v>
+        <v>1.026917603356799</v>
       </c>
       <c r="F25">
-        <v>1.038556514184085</v>
+        <v>1.037631331805338</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053645148683926</v>
+        <v>1.052906067403721</v>
       </c>
       <c r="J25">
-        <v>1.036598930519904</v>
+        <v>1.035826018636418</v>
       </c>
       <c r="K25">
-        <v>1.045983846402161</v>
+        <v>1.04457767941321</v>
       </c>
       <c r="L25">
-        <v>1.039852933660785</v>
+        <v>1.039111949703257</v>
       </c>
       <c r="M25">
-        <v>1.050584385787442</v>
+        <v>1.049672263840415</v>
       </c>
       <c r="N25">
-        <v>1.01604733966941</v>
+        <v>1.016720830085564</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048606493947722</v>
+        <v>1.047884618231588</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043632797313272</v>
+        <v>1.042652015072734</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023998724050924</v>
       </c>
     </row>
   </sheetData>
